--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232608838034594</v>
+        <v>1.232608838034537</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0164567222667138</v>
+        <v>0.01645672226693051</v>
       </c>
       <c r="E2">
-        <v>0.02175651220556851</v>
+        <v>0.02175651220560582</v>
       </c>
       <c r="F2">
         <v>2.071654998921858</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00900953113434122</v>
+        <v>0.009009531134365201</v>
       </c>
       <c r="J2">
-        <v>3.640736937807048</v>
+        <v>3.64073693780702</v>
       </c>
       <c r="K2">
-        <v>2.062626165998267</v>
+        <v>2.062626165998253</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.06654781681894</v>
+        <v>1.066547816818968</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01322129908795944</v>
+        <v>0.01322129908785286</v>
       </c>
       <c r="E3">
-        <v>0.02206970763024074</v>
+        <v>0.02206970763024518</v>
       </c>
       <c r="F3">
         <v>1.794950807428847</v>
       </c>
       <c r="G3">
-        <v>1.418812089882778</v>
+        <v>1.418812089882763</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01045985692088358</v>
+        <v>0.01045985692087337</v>
       </c>
       <c r="J3">
-        <v>3.143351662184756</v>
+        <v>3.143351662184742</v>
       </c>
       <c r="K3">
-        <v>1.776928640177701</v>
+        <v>1.776928640177658</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9661650885363997</v>
+        <v>0.9661650885364281</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01145255247492116</v>
+        <v>0.01145255247473287</v>
       </c>
       <c r="E4">
-        <v>0.02229966716527265</v>
+        <v>0.02229966716526555</v>
       </c>
       <c r="F4">
-        <v>1.634520904276741</v>
+        <v>1.634520904276712</v>
       </c>
       <c r="G4">
-        <v>1.290581387905576</v>
+        <v>1.29058138790559</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01142810441700437</v>
+        <v>0.01142810441698705</v>
       </c>
       <c r="J4">
-        <v>2.842226127378851</v>
+        <v>2.842226127378908</v>
       </c>
       <c r="K4">
         <v>1.604418703705264</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9255923693103227</v>
+        <v>0.9255923693101806</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01077834657253618</v>
+        <v>0.01077834657263921</v>
       </c>
       <c r="E5">
-        <v>0.02240279541264023</v>
+        <v>0.02240279541265622</v>
       </c>
       <c r="F5">
-        <v>1.571213184872249</v>
+        <v>1.571213184872263</v>
       </c>
       <c r="G5">
         <v>1.240042407129081</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01184131140766187</v>
+        <v>0.01184131140766809</v>
       </c>
       <c r="J5">
-        <v>2.720379935605024</v>
+        <v>2.720379935604996</v>
       </c>
       <c r="K5">
-        <v>1.534714825623837</v>
+        <v>1.534714825623823</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9188737621443295</v>
+        <v>0.9188737621443579</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01066898901079227</v>
+        <v>0.0106689890108882</v>
       </c>
       <c r="E6">
-        <v>0.02242048738645419</v>
+        <v>0.02242048738643554</v>
       </c>
       <c r="F6">
         <v>1.560817515473119</v>
       </c>
       <c r="G6">
-        <v>1.23174706744399</v>
+        <v>1.231747067443976</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01191102489115359</v>
+        <v>0.01191102489113005</v>
       </c>
       <c r="J6">
-        <v>2.700194074800692</v>
+        <v>2.700194074800706</v>
       </c>
       <c r="K6">
         <v>1.523172836077833</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9656166364463274</v>
+        <v>0.9656166364464127</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01144328136586381</v>
+        <v>0.01144328136589223</v>
       </c>
       <c r="E7">
-        <v>0.02230101991262234</v>
+        <v>0.02230101991264632</v>
       </c>
       <c r="F7">
-        <v>1.633659123100259</v>
+        <v>1.633659123100273</v>
       </c>
       <c r="G7">
-        <v>1.28989317477297</v>
+        <v>1.289893174772985</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01143360274301886</v>
+        <v>0.01143360274302063</v>
       </c>
       <c r="J7">
         <v>2.840579622869257</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.174982894258221</v>
+        <v>1.174982894258534</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01529063840078138</v>
+        <v>0.0152906384007494</v>
       </c>
       <c r="E8">
-        <v>0.02185665067650167</v>
+        <v>0.02185665067649456</v>
       </c>
       <c r="F8">
-        <v>1.974082219293493</v>
+        <v>1.974082219293521</v>
       </c>
       <c r="G8">
         <v>1.562235380883266</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009492891119546876</v>
+        <v>0.00949289111953977</v>
       </c>
       <c r="J8">
         <v>3.468217637875398</v>
       </c>
       <c r="K8">
-        <v>1.963426150278266</v>
+        <v>1.963426150278238</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.601371270800115</v>
+        <v>1.601371270799916</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02500465075467417</v>
+        <v>0.02500465075455693</v>
       </c>
       <c r="E9">
-        <v>0.02128731388697425</v>
+        <v>0.02128731388698757</v>
       </c>
       <c r="F9">
-        <v>2.733229547080612</v>
+        <v>2.733229547080583</v>
       </c>
       <c r="G9">
-        <v>2.17242142483461</v>
+        <v>2.172421424834639</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.006350365839402627</v>
+        <v>0.006350365839417726</v>
       </c>
       <c r="J9">
-        <v>4.743983958541975</v>
+        <v>4.743983958541918</v>
       </c>
       <c r="K9">
-        <v>2.699600518468628</v>
+        <v>2.699600518468657</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.929713667039607</v>
+        <v>1.929713667039834</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03422406787762355</v>
+        <v>0.03422406787786514</v>
       </c>
       <c r="E10">
-        <v>0.02105959826108617</v>
+        <v>0.02105959826111103</v>
       </c>
       <c r="F10">
         <v>3.374487397792592</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004520308903405823</v>
+        <v>0.00452030890340227</v>
       </c>
       <c r="J10">
         <v>5.727356503062651</v>
       </c>
       <c r="K10">
-        <v>3.271132605242485</v>
+        <v>3.271132605242514</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.083874534489155</v>
+        <v>2.083874534489098</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03909690654482745</v>
+        <v>0.03909690654491982</v>
       </c>
       <c r="E11">
-        <v>0.02099951129796906</v>
+        <v>0.02099951129790512</v>
       </c>
       <c r="F11">
-        <v>3.692330464574042</v>
+        <v>3.692330464574127</v>
       </c>
       <c r="G11">
-        <v>2.947696567714317</v>
+        <v>2.947696567714303</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003811868998655932</v>
+        <v>0.003811868998646162</v>
       </c>
       <c r="J11">
-        <v>6.190070669647127</v>
+        <v>6.190070669647156</v>
       </c>
       <c r="K11">
         <v>3.541300516278255</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.143098639331072</v>
+        <v>2.143098639330731</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04106477443588119</v>
+        <v>0.04106477443600198</v>
       </c>
       <c r="E12">
-        <v>0.02098326367936032</v>
+        <v>0.02098326367935854</v>
       </c>
       <c r="F12">
         <v>3.81730508374747</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003563485946719513</v>
+        <v>0.003563485946716849</v>
       </c>
       <c r="J12">
         <v>6.368068705937247</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.130303154941203</v>
+        <v>2.130303154941316</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0406350364907837</v>
+        <v>0.04063503649075528</v>
       </c>
       <c r="E13">
-        <v>0.02098646867197296</v>
+        <v>0.02098646867198184</v>
       </c>
       <c r="F13">
-        <v>3.790168518242126</v>
+        <v>3.790168518242155</v>
       </c>
       <c r="G13">
         <v>3.027015885248005</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003616058671012556</v>
+        <v>0.003616058670978806</v>
       </c>
       <c r="J13">
         <v>6.329599638770759</v>
       </c>
       <c r="K13">
-        <v>3.622925917995275</v>
+        <v>3.622925917995218</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.088728951089024</v>
+        <v>2.088728951088797</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03925618019618327</v>
+        <v>0.03925618019617616</v>
       </c>
       <c r="E14">
-        <v>0.02099804248377346</v>
+        <v>0.02099804248380188</v>
       </c>
       <c r="F14">
         <v>3.702514098422029</v>
       </c>
       <c r="G14">
-        <v>2.955950763707165</v>
+        <v>2.955950763707179</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003791022780557984</v>
+        <v>0.003791022780569531</v>
       </c>
       <c r="J14">
-        <v>6.20465528143967</v>
+        <v>6.204655281439727</v>
       </c>
       <c r="K14">
-        <v>3.54982917784065</v>
+        <v>3.549829177840678</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.063379034474792</v>
+        <v>2.063379034475076</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03842841232060579</v>
+        <v>0.03842841232072658</v>
       </c>
       <c r="E15">
-        <v>0.02100598784309149</v>
+        <v>0.02100598784311103</v>
       </c>
       <c r="F15">
-        <v>3.649452981463526</v>
+        <v>3.649452981463469</v>
       </c>
       <c r="G15">
-        <v>2.912947693319325</v>
+        <v>2.91294769331931</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003900850197934069</v>
+        <v>0.003900850197906092</v>
       </c>
       <c r="J15">
-        <v>6.128504098113638</v>
+        <v>6.128504098113581</v>
       </c>
       <c r="K15">
-        <v>3.50530697831158</v>
+        <v>3.505306978311495</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03392127531070699</v>
+        <v>0.03392127531069633</v>
       </c>
       <c r="E16">
-        <v>0.02106442014770593</v>
+        <v>0.02106442014772547</v>
       </c>
       <c r="F16">
         <v>3.354310317696786</v>
       </c>
       <c r="G16">
-        <v>2.673974615037693</v>
+        <v>2.673974615037679</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004569270733648878</v>
+        <v>0.004569270733631114</v>
       </c>
       <c r="J16">
         <v>5.697472099341184</v>
       </c>
       <c r="K16">
-        <v>3.253711277085671</v>
+        <v>3.253711277085657</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.832965806271801</v>
+        <v>1.832965806271744</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03134609491597828</v>
+        <v>0.0313460949158646</v>
       </c>
       <c r="E17">
-        <v>0.02111156371711509</v>
+        <v>0.02111156371715772</v>
       </c>
       <c r="F17">
-        <v>3.180493955406291</v>
+        <v>3.180493955406263</v>
       </c>
       <c r="G17">
         <v>2.533421474929611</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005012450963599591</v>
+        <v>0.005012450963583159</v>
       </c>
       <c r="J17">
-        <v>5.437351485934016</v>
+        <v>5.437351485934073</v>
       </c>
       <c r="K17">
-        <v>3.102212021571191</v>
+        <v>3.102212021571233</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.783491336368087</v>
+        <v>1.783491336368201</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02992701008923859</v>
+        <v>0.02992701008928478</v>
       </c>
       <c r="E18">
-        <v>0.02114275536924115</v>
+        <v>0.02114275536923049</v>
       </c>
       <c r="F18">
-        <v>3.082917920468077</v>
+        <v>3.08291792046802</v>
       </c>
       <c r="G18">
-        <v>2.454580718745987</v>
+        <v>2.454580718745959</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005278892742983654</v>
+        <v>0.005278892743005859</v>
       </c>
       <c r="J18">
-        <v>5.289143628218255</v>
+        <v>5.289143628218199</v>
       </c>
       <c r="K18">
-        <v>3.016004829602437</v>
+        <v>3.016004829602466</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.766811486996971</v>
+        <v>1.766811486997199</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02945653195131115</v>
+        <v>0.0294565319513147</v>
       </c>
       <c r="E19">
-        <v>0.02115400993066174</v>
+        <v>0.02115400993067684</v>
       </c>
       <c r="F19">
         <v>3.050269242944125</v>
       </c>
       <c r="G19">
-        <v>2.428211035754927</v>
+        <v>2.428211035754941</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005371029855300691</v>
+        <v>0.005371029855258502</v>
       </c>
       <c r="J19">
-        <v>5.239189256211915</v>
+        <v>5.239189256211887</v>
       </c>
       <c r="K19">
         <v>2.986966419842176</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.842157311717813</v>
+        <v>1.842157311717841</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03161363949805818</v>
+        <v>0.03161363949805462</v>
       </c>
       <c r="E20">
-        <v>0.02110612178789051</v>
+        <v>0.02110612178790561</v>
       </c>
       <c r="F20">
-        <v>3.198743168223871</v>
+        <v>3.198743168223842</v>
       </c>
       <c r="G20">
-        <v>2.548171732827129</v>
+        <v>2.548171732827143</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004964065985260557</v>
+        <v>0.004964065985274324</v>
       </c>
       <c r="J20">
-        <v>5.464892469307557</v>
+        <v>5.464892469307529</v>
       </c>
       <c r="K20">
-        <v>3.118240561248683</v>
+        <v>3.118240561248669</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,25 +1140,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03965762406581064</v>
+        <v>0.03965762406578222</v>
       </c>
       <c r="E21">
-        <v>0.0209944640056321</v>
+        <v>0.0209944640056392</v>
       </c>
       <c r="F21">
-        <v>3.728127265793404</v>
+        <v>3.728127265793432</v>
       </c>
       <c r="G21">
-        <v>2.976713086382333</v>
+        <v>2.976713086382347</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.003739073720423924</v>
+        <v>0.003739073720448793</v>
       </c>
       <c r="J21">
-        <v>6.241273898708755</v>
+        <v>6.241273898708727</v>
       </c>
       <c r="K21">
         <v>3.571246224524145</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04564632745037045</v>
+        <v>0.04564632745046993</v>
       </c>
       <c r="E22">
-        <v>0.02095959248869228</v>
+        <v>0.02095959248871715</v>
       </c>
       <c r="F22">
-        <v>4.101561853310301</v>
+        <v>4.101561853310329</v>
       </c>
       <c r="G22">
-        <v>3.279731962606988</v>
+        <v>3.279731962607002</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003055618669224547</v>
+        <v>0.003055618669257854</v>
       </c>
       <c r="J22">
-        <v>6.765242660060721</v>
+        <v>6.765242660060693</v>
       </c>
       <c r="K22">
-        <v>3.878255418236307</v>
+        <v>3.878255418236336</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181596096838803</v>
+        <v>2.181596096838689</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04237304808308551</v>
+        <v>0.04237304808285813</v>
       </c>
       <c r="E23">
-        <v>0.0209746120660288</v>
+        <v>0.02097461206606077</v>
       </c>
       <c r="F23">
         <v>3.899402149864102</v>
       </c>
       <c r="G23">
-        <v>3.115621054718204</v>
+        <v>3.115621054718233</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.003408897431204316</v>
+        <v>0.003408897431206537</v>
       </c>
       <c r="J23">
-        <v>6.483852117543506</v>
+        <v>6.483852117543478</v>
       </c>
       <c r="K23">
-        <v>3.713250375353198</v>
+        <v>3.713250375353255</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.838000542052782</v>
+        <v>1.838000542052811</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03149249307912783</v>
+        <v>0.03149249307868729</v>
       </c>
       <c r="E24">
-        <v>0.02110856936809746</v>
+        <v>0.02110856936806282</v>
       </c>
       <c r="F24">
         <v>3.1904854309999</v>
       </c>
       <c r="G24">
-        <v>2.541497072311486</v>
+        <v>2.541497072311444</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.004985904691884979</v>
+        <v>0.004985904691918286</v>
       </c>
       <c r="J24">
-        <v>5.452437061283661</v>
+        <v>5.452437061283632</v>
       </c>
       <c r="K24">
-        <v>3.110991307858541</v>
+        <v>3.110991307858555</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.483820165867229</v>
+        <v>1.483820165867286</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02207530709189598</v>
+        <v>0.02207530709179295</v>
       </c>
       <c r="E25">
-        <v>0.0214084406167192</v>
+        <v>0.02140844061671032</v>
       </c>
       <c r="F25">
         <v>2.515500007926107</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007122459015101779</v>
+        <v>0.007122459015106219</v>
       </c>
       <c r="J25">
-        <v>4.392315540202475</v>
+        <v>4.392315540202446</v>
       </c>
       <c r="K25">
-        <v>2.496074706892699</v>
+        <v>2.496074706892671</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232608838034537</v>
+        <v>1.232608838034594</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01645672226693051</v>
+        <v>0.0164567222667138</v>
       </c>
       <c r="E2">
-        <v>0.02175651220560582</v>
+        <v>0.02175651220556851</v>
       </c>
       <c r="F2">
         <v>2.071654998921858</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009009531134365201</v>
+        <v>0.00900953113434122</v>
       </c>
       <c r="J2">
-        <v>3.64073693780702</v>
+        <v>3.640736937807048</v>
       </c>
       <c r="K2">
-        <v>2.062626165998253</v>
+        <v>2.062626165998267</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066547816818968</v>
+        <v>1.06654781681894</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01322129908785286</v>
+        <v>0.01322129908795944</v>
       </c>
       <c r="E3">
-        <v>0.02206970763024518</v>
+        <v>0.02206970763024074</v>
       </c>
       <c r="F3">
         <v>1.794950807428847</v>
       </c>
       <c r="G3">
-        <v>1.418812089882763</v>
+        <v>1.418812089882778</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01045985692087337</v>
+        <v>0.01045985692088358</v>
       </c>
       <c r="J3">
-        <v>3.143351662184742</v>
+        <v>3.143351662184756</v>
       </c>
       <c r="K3">
-        <v>1.776928640177658</v>
+        <v>1.776928640177701</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9661650885364281</v>
+        <v>0.9661650885363997</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01145255247473287</v>
+        <v>0.01145255247492116</v>
       </c>
       <c r="E4">
-        <v>0.02229966716526555</v>
+        <v>0.02229966716527265</v>
       </c>
       <c r="F4">
-        <v>1.634520904276712</v>
+        <v>1.634520904276741</v>
       </c>
       <c r="G4">
-        <v>1.29058138790559</v>
+        <v>1.290581387905576</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01142810441698705</v>
+        <v>0.01142810441700437</v>
       </c>
       <c r="J4">
-        <v>2.842226127378908</v>
+        <v>2.842226127378851</v>
       </c>
       <c r="K4">
         <v>1.604418703705264</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9255923693101806</v>
+        <v>0.9255923693103227</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01077834657263921</v>
+        <v>0.01077834657253618</v>
       </c>
       <c r="E5">
-        <v>0.02240279541265622</v>
+        <v>0.02240279541264023</v>
       </c>
       <c r="F5">
-        <v>1.571213184872263</v>
+        <v>1.571213184872249</v>
       </c>
       <c r="G5">
         <v>1.240042407129081</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01184131140766809</v>
+        <v>0.01184131140766187</v>
       </c>
       <c r="J5">
-        <v>2.720379935604996</v>
+        <v>2.720379935605024</v>
       </c>
       <c r="K5">
-        <v>1.534714825623823</v>
+        <v>1.534714825623837</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9188737621443579</v>
+        <v>0.9188737621443295</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0106689890108882</v>
+        <v>0.01066898901079227</v>
       </c>
       <c r="E6">
-        <v>0.02242048738643554</v>
+        <v>0.02242048738645419</v>
       </c>
       <c r="F6">
         <v>1.560817515473119</v>
       </c>
       <c r="G6">
-        <v>1.231747067443976</v>
+        <v>1.23174706744399</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01191102489113005</v>
+        <v>0.01191102489115359</v>
       </c>
       <c r="J6">
-        <v>2.700194074800706</v>
+        <v>2.700194074800692</v>
       </c>
       <c r="K6">
         <v>1.523172836077833</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9656166364464127</v>
+        <v>0.9656166364463274</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01144328136589223</v>
+        <v>0.01144328136586381</v>
       </c>
       <c r="E7">
-        <v>0.02230101991264632</v>
+        <v>0.02230101991262234</v>
       </c>
       <c r="F7">
-        <v>1.633659123100273</v>
+        <v>1.633659123100259</v>
       </c>
       <c r="G7">
-        <v>1.289893174772985</v>
+        <v>1.28989317477297</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01143360274302063</v>
+        <v>0.01143360274301886</v>
       </c>
       <c r="J7">
         <v>2.840579622869257</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.174982894258534</v>
+        <v>1.174982894258221</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0152906384007494</v>
+        <v>0.01529063840078138</v>
       </c>
       <c r="E8">
-        <v>0.02185665067649456</v>
+        <v>0.02185665067650167</v>
       </c>
       <c r="F8">
-        <v>1.974082219293521</v>
+        <v>1.974082219293493</v>
       </c>
       <c r="G8">
         <v>1.562235380883266</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.00949289111953977</v>
+        <v>0.009492891119546876</v>
       </c>
       <c r="J8">
         <v>3.468217637875398</v>
       </c>
       <c r="K8">
-        <v>1.963426150278238</v>
+        <v>1.963426150278266</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.601371270799916</v>
+        <v>1.601371270800115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02500465075455693</v>
+        <v>0.02500465075467417</v>
       </c>
       <c r="E9">
-        <v>0.02128731388698757</v>
+        <v>0.02128731388697425</v>
       </c>
       <c r="F9">
-        <v>2.733229547080583</v>
+        <v>2.733229547080612</v>
       </c>
       <c r="G9">
-        <v>2.172421424834639</v>
+        <v>2.17242142483461</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.006350365839417726</v>
+        <v>0.006350365839402627</v>
       </c>
       <c r="J9">
-        <v>4.743983958541918</v>
+        <v>4.743983958541975</v>
       </c>
       <c r="K9">
-        <v>2.699600518468657</v>
+        <v>2.699600518468628</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.929713667039834</v>
+        <v>1.929713667039607</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03422406787786514</v>
+        <v>0.03422406787762355</v>
       </c>
       <c r="E10">
-        <v>0.02105959826111103</v>
+        <v>0.02105959826108617</v>
       </c>
       <c r="F10">
         <v>3.374487397792592</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00452030890340227</v>
+        <v>0.004520308903405823</v>
       </c>
       <c r="J10">
         <v>5.727356503062651</v>
       </c>
       <c r="K10">
-        <v>3.271132605242514</v>
+        <v>3.271132605242485</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.083874534489098</v>
+        <v>2.083874534489155</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03909690654491982</v>
+        <v>0.03909690654482745</v>
       </c>
       <c r="E11">
-        <v>0.02099951129790512</v>
+        <v>0.02099951129796906</v>
       </c>
       <c r="F11">
-        <v>3.692330464574127</v>
+        <v>3.692330464574042</v>
       </c>
       <c r="G11">
-        <v>2.947696567714303</v>
+        <v>2.947696567714317</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003811868998646162</v>
+        <v>0.003811868998655932</v>
       </c>
       <c r="J11">
-        <v>6.190070669647156</v>
+        <v>6.190070669647127</v>
       </c>
       <c r="K11">
         <v>3.541300516278255</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.143098639330731</v>
+        <v>2.143098639331072</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04106477443600198</v>
+        <v>0.04106477443588119</v>
       </c>
       <c r="E12">
-        <v>0.02098326367935854</v>
+        <v>0.02098326367936032</v>
       </c>
       <c r="F12">
         <v>3.81730508374747</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003563485946716849</v>
+        <v>0.003563485946719513</v>
       </c>
       <c r="J12">
         <v>6.368068705937247</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.130303154941316</v>
+        <v>2.130303154941203</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04063503649075528</v>
+        <v>0.0406350364907837</v>
       </c>
       <c r="E13">
-        <v>0.02098646867198184</v>
+        <v>0.02098646867197296</v>
       </c>
       <c r="F13">
-        <v>3.790168518242155</v>
+        <v>3.790168518242126</v>
       </c>
       <c r="G13">
         <v>3.027015885248005</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003616058670978806</v>
+        <v>0.003616058671012556</v>
       </c>
       <c r="J13">
         <v>6.329599638770759</v>
       </c>
       <c r="K13">
-        <v>3.622925917995218</v>
+        <v>3.622925917995275</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.088728951088797</v>
+        <v>2.088728951089024</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03925618019617616</v>
+        <v>0.03925618019618327</v>
       </c>
       <c r="E14">
-        <v>0.02099804248380188</v>
+        <v>0.02099804248377346</v>
       </c>
       <c r="F14">
         <v>3.702514098422029</v>
       </c>
       <c r="G14">
-        <v>2.955950763707179</v>
+        <v>2.955950763707165</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003791022780569531</v>
+        <v>0.003791022780557984</v>
       </c>
       <c r="J14">
-        <v>6.204655281439727</v>
+        <v>6.20465528143967</v>
       </c>
       <c r="K14">
-        <v>3.549829177840678</v>
+        <v>3.54982917784065</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.063379034475076</v>
+        <v>2.063379034474792</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03842841232072658</v>
+        <v>0.03842841232060579</v>
       </c>
       <c r="E15">
-        <v>0.02100598784311103</v>
+        <v>0.02100598784309149</v>
       </c>
       <c r="F15">
-        <v>3.649452981463469</v>
+        <v>3.649452981463526</v>
       </c>
       <c r="G15">
-        <v>2.91294769331931</v>
+        <v>2.912947693319325</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003900850197906092</v>
+        <v>0.003900850197934069</v>
       </c>
       <c r="J15">
-        <v>6.128504098113581</v>
+        <v>6.128504098113638</v>
       </c>
       <c r="K15">
-        <v>3.505306978311495</v>
+        <v>3.50530697831158</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03392127531069633</v>
+        <v>0.03392127531070699</v>
       </c>
       <c r="E16">
-        <v>0.02106442014772547</v>
+        <v>0.02106442014770593</v>
       </c>
       <c r="F16">
         <v>3.354310317696786</v>
       </c>
       <c r="G16">
-        <v>2.673974615037679</v>
+        <v>2.673974615037693</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004569270733631114</v>
+        <v>0.004569270733648878</v>
       </c>
       <c r="J16">
         <v>5.697472099341184</v>
       </c>
       <c r="K16">
-        <v>3.253711277085657</v>
+        <v>3.253711277085671</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.832965806271744</v>
+        <v>1.832965806271801</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0313460949158646</v>
+        <v>0.03134609491597828</v>
       </c>
       <c r="E17">
-        <v>0.02111156371715772</v>
+        <v>0.02111156371711509</v>
       </c>
       <c r="F17">
-        <v>3.180493955406263</v>
+        <v>3.180493955406291</v>
       </c>
       <c r="G17">
         <v>2.533421474929611</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005012450963583159</v>
+        <v>0.005012450963599591</v>
       </c>
       <c r="J17">
-        <v>5.437351485934073</v>
+        <v>5.437351485934016</v>
       </c>
       <c r="K17">
-        <v>3.102212021571233</v>
+        <v>3.102212021571191</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.783491336368201</v>
+        <v>1.783491336368087</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02992701008928478</v>
+        <v>0.02992701008923859</v>
       </c>
       <c r="E18">
-        <v>0.02114275536923049</v>
+        <v>0.02114275536924115</v>
       </c>
       <c r="F18">
-        <v>3.08291792046802</v>
+        <v>3.082917920468077</v>
       </c>
       <c r="G18">
-        <v>2.454580718745959</v>
+        <v>2.454580718745987</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005278892743005859</v>
+        <v>0.005278892742983654</v>
       </c>
       <c r="J18">
-        <v>5.289143628218199</v>
+        <v>5.289143628218255</v>
       </c>
       <c r="K18">
-        <v>3.016004829602466</v>
+        <v>3.016004829602437</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.766811486997199</v>
+        <v>1.766811486996971</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0294565319513147</v>
+        <v>0.02945653195131115</v>
       </c>
       <c r="E19">
-        <v>0.02115400993067684</v>
+        <v>0.02115400993066174</v>
       </c>
       <c r="F19">
         <v>3.050269242944125</v>
       </c>
       <c r="G19">
-        <v>2.428211035754941</v>
+        <v>2.428211035754927</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005371029855258502</v>
+        <v>0.005371029855300691</v>
       </c>
       <c r="J19">
-        <v>5.239189256211887</v>
+        <v>5.239189256211915</v>
       </c>
       <c r="K19">
         <v>2.986966419842176</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.842157311717841</v>
+        <v>1.842157311717813</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03161363949805462</v>
+        <v>0.03161363949805818</v>
       </c>
       <c r="E20">
-        <v>0.02110612178790561</v>
+        <v>0.02110612178789051</v>
       </c>
       <c r="F20">
-        <v>3.198743168223842</v>
+        <v>3.198743168223871</v>
       </c>
       <c r="G20">
-        <v>2.548171732827143</v>
+        <v>2.548171732827129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004964065985274324</v>
+        <v>0.004964065985260557</v>
       </c>
       <c r="J20">
-        <v>5.464892469307529</v>
+        <v>5.464892469307557</v>
       </c>
       <c r="K20">
-        <v>3.118240561248669</v>
+        <v>3.118240561248683</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,25 +1140,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03965762406578222</v>
+        <v>0.03965762406581064</v>
       </c>
       <c r="E21">
-        <v>0.0209944640056392</v>
+        <v>0.0209944640056321</v>
       </c>
       <c r="F21">
-        <v>3.728127265793432</v>
+        <v>3.728127265793404</v>
       </c>
       <c r="G21">
-        <v>2.976713086382347</v>
+        <v>2.976713086382333</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.003739073720448793</v>
+        <v>0.003739073720423924</v>
       </c>
       <c r="J21">
-        <v>6.241273898708727</v>
+        <v>6.241273898708755</v>
       </c>
       <c r="K21">
         <v>3.571246224524145</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04564632745046993</v>
+        <v>0.04564632745037045</v>
       </c>
       <c r="E22">
-        <v>0.02095959248871715</v>
+        <v>0.02095959248869228</v>
       </c>
       <c r="F22">
-        <v>4.101561853310329</v>
+        <v>4.101561853310301</v>
       </c>
       <c r="G22">
-        <v>3.279731962607002</v>
+        <v>3.279731962606988</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003055618669257854</v>
+        <v>0.003055618669224547</v>
       </c>
       <c r="J22">
-        <v>6.765242660060693</v>
+        <v>6.765242660060721</v>
       </c>
       <c r="K22">
-        <v>3.878255418236336</v>
+        <v>3.878255418236307</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181596096838689</v>
+        <v>2.181596096838803</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04237304808285813</v>
+        <v>0.04237304808308551</v>
       </c>
       <c r="E23">
-        <v>0.02097461206606077</v>
+        <v>0.0209746120660288</v>
       </c>
       <c r="F23">
         <v>3.899402149864102</v>
       </c>
       <c r="G23">
-        <v>3.115621054718233</v>
+        <v>3.115621054718204</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.003408897431206537</v>
+        <v>0.003408897431204316</v>
       </c>
       <c r="J23">
-        <v>6.483852117543478</v>
+        <v>6.483852117543506</v>
       </c>
       <c r="K23">
-        <v>3.713250375353255</v>
+        <v>3.713250375353198</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.838000542052811</v>
+        <v>1.838000542052782</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03149249307868729</v>
+        <v>0.03149249307912783</v>
       </c>
       <c r="E24">
-        <v>0.02110856936806282</v>
+        <v>0.02110856936809746</v>
       </c>
       <c r="F24">
         <v>3.1904854309999</v>
       </c>
       <c r="G24">
-        <v>2.541497072311444</v>
+        <v>2.541497072311486</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.004985904691918286</v>
+        <v>0.004985904691884979</v>
       </c>
       <c r="J24">
-        <v>5.452437061283632</v>
+        <v>5.452437061283661</v>
       </c>
       <c r="K24">
-        <v>3.110991307858555</v>
+        <v>3.110991307858541</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.483820165867286</v>
+        <v>1.483820165867229</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02207530709179295</v>
+        <v>0.02207530709189598</v>
       </c>
       <c r="E25">
-        <v>0.02140844061671032</v>
+        <v>0.0214084406167192</v>
       </c>
       <c r="F25">
         <v>2.515500007926107</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007122459015106219</v>
+        <v>0.007122459015101779</v>
       </c>
       <c r="J25">
-        <v>4.392315540202446</v>
+        <v>4.392315540202475</v>
       </c>
       <c r="K25">
-        <v>2.496074706892671</v>
+        <v>2.496074706892699</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232608838034594</v>
+        <v>1.232588108150992</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0164567222667138</v>
+        <v>0.01632177106391097</v>
       </c>
       <c r="E2">
-        <v>0.02175651220556851</v>
+        <v>0.02171662545822972</v>
       </c>
       <c r="F2">
-        <v>2.071654998921858</v>
+        <v>2.067322722573465</v>
       </c>
       <c r="G2">
-        <v>1.640457263636648</v>
+        <v>0.5458684946952275</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.093952028920981</v>
       </c>
       <c r="I2">
-        <v>0.00900953113434122</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.640736937807048</v>
+        <v>0.009003242366627973</v>
       </c>
       <c r="K2">
-        <v>2.062626165998267</v>
+        <v>3.640195515335023</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.062480287544631</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.06654781681894</v>
+        <v>1.066542522268435</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01322129908795944</v>
+        <v>0.01310798086850795</v>
       </c>
       <c r="E3">
-        <v>0.02206970763024074</v>
+        <v>0.02203657266000203</v>
       </c>
       <c r="F3">
-        <v>1.794950807428847</v>
+        <v>1.791229990510971</v>
       </c>
       <c r="G3">
-        <v>1.418812089882778</v>
+        <v>0.4677737916802585</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9511690039072249</v>
       </c>
       <c r="I3">
-        <v>0.01045985692088358</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.143351662184756</v>
+        <v>0.0104539179371268</v>
       </c>
       <c r="K3">
-        <v>1.776928640177701</v>
+        <v>3.142952777309716</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.776842793634032</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9661650885363997</v>
+        <v>0.9661668916170356</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01145255247492116</v>
+        <v>0.01135150539910157</v>
       </c>
       <c r="E4">
-        <v>0.02229966716527265</v>
+        <v>0.0222709021133376</v>
       </c>
       <c r="F4">
-        <v>1.634520904276741</v>
+        <v>1.631154676694663</v>
       </c>
       <c r="G4">
-        <v>1.290581387905576</v>
+        <v>0.4223989029876947</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.868760317110528</v>
       </c>
       <c r="I4">
-        <v>0.01142810441700437</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.842226127378851</v>
+        <v>0.0114225656851934</v>
       </c>
       <c r="K4">
-        <v>1.604418703705264</v>
+        <v>2.841904092049262</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.604363337118969</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9255923693103227</v>
+        <v>0.9255965634430936</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01077834657253618</v>
+        <v>0.01068208599139808</v>
       </c>
       <c r="E5">
-        <v>0.02240279541264023</v>
+        <v>0.02237586745458398</v>
       </c>
       <c r="F5">
-        <v>1.571213184872249</v>
+        <v>1.567987096678749</v>
       </c>
       <c r="G5">
-        <v>1.240042407129081</v>
+        <v>0.4044677683071853</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8363296212867652</v>
       </c>
       <c r="I5">
-        <v>0.01184131140766187</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.720379935605024</v>
+        <v>0.01183597900926481</v>
       </c>
       <c r="K5">
-        <v>1.534714825623837</v>
+        <v>2.720087008203876</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.534670557775542</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9188737621443295</v>
+        <v>0.9188783255684427</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01066898901079227</v>
+        <v>0.01057351135571238</v>
       </c>
       <c r="E6">
-        <v>0.02242048738645419</v>
+        <v>0.02239386787109332</v>
       </c>
       <c r="F6">
-        <v>1.560817515473119</v>
+        <v>1.557614457294989</v>
       </c>
       <c r="G6">
-        <v>1.23174706744399</v>
+        <v>0.4015217312302184</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8310094553372664</v>
       </c>
       <c r="I6">
-        <v>0.01191102489115359</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.700194074800692</v>
+        <v>0.01190572927147127</v>
       </c>
       <c r="K6">
-        <v>1.523172836077833</v>
+        <v>2.699905859731444</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.523130338671152</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9656166364463274</v>
+        <v>0.9656184736865896</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01144328136586381</v>
+        <v>0.01134229966063316</v>
       </c>
       <c r="E7">
-        <v>0.02230101991262234</v>
+        <v>0.02227227940860121</v>
       </c>
       <c r="F7">
-        <v>1.633659123100259</v>
+        <v>1.630294802067837</v>
       </c>
       <c r="G7">
-        <v>1.28989317477297</v>
+        <v>0.4221549208642301</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8683184944754032</v>
       </c>
       <c r="I7">
-        <v>0.01143360274301886</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2.840579622869257</v>
+        <v>0.0114280666231652</v>
       </c>
       <c r="K7">
-        <v>1.603476410397477</v>
+        <v>2.840257988473269</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.603421198507476</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.174982894258221</v>
+        <v>1.174968044334207</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01529063840078138</v>
+        <v>0.01516338251267513</v>
       </c>
       <c r="E8">
-        <v>0.02185665067650167</v>
+        <v>0.02181904541670576</v>
       </c>
       <c r="F8">
-        <v>1.974082219293493</v>
+        <v>1.969965680851914</v>
       </c>
       <c r="G8">
-        <v>1.562235380883266</v>
+        <v>0.5183502968814224</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.043518610714344</v>
       </c>
       <c r="I8">
-        <v>0.009492891119546876</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3.468217637875398</v>
+        <v>0.009486682298163185</v>
       </c>
       <c r="K8">
-        <v>1.963426150278266</v>
+        <v>3.467727888477299</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.963302481015333</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.601371270800115</v>
+        <v>1.601299329936722</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02500465075467417</v>
+        <v>0.02481561643381625</v>
       </c>
       <c r="E9">
-        <v>0.02128731388697425</v>
+        <v>0.02123409092742445</v>
       </c>
       <c r="F9">
-        <v>2.733229547080612</v>
+        <v>2.727423124189585</v>
       </c>
       <c r="G9">
-        <v>2.17242142483461</v>
+        <v>0.732079300449783</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.437872951882539</v>
       </c>
       <c r="I9">
-        <v>0.006350365839402627</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.743983958541975</v>
+        <v>0.006344483203793772</v>
       </c>
       <c r="K9">
-        <v>2.699600518468628</v>
+        <v>4.743053181515677</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.699275986896097</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.929713667039607</v>
+        <v>1.929574862374778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03422406787762355</v>
+        <v>0.03397940228277108</v>
       </c>
       <c r="E10">
-        <v>0.02105959826108617</v>
+        <v>0.02099591660129541</v>
       </c>
       <c r="F10">
-        <v>3.374487397792592</v>
+        <v>3.367219186988564</v>
       </c>
       <c r="G10">
-        <v>2.690299397525706</v>
+        <v>0.9122377194980231</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.773799588909867</v>
       </c>
       <c r="I10">
-        <v>0.004520308903405823</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.727356503062651</v>
+        <v>0.004515946927594161</v>
       </c>
       <c r="K10">
-        <v>3.271132605242485</v>
+        <v>5.725984972788382</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.270590404676611</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.083874534489155</v>
+        <v>2.083696636737614</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03909690654482745</v>
+        <v>0.03882345142127974</v>
       </c>
       <c r="E11">
-        <v>0.02099951129796906</v>
+        <v>0.02093125973033416</v>
       </c>
       <c r="F11">
-        <v>3.692330464574042</v>
+        <v>3.684320980502292</v>
       </c>
       <c r="G11">
-        <v>2.947696567714317</v>
+        <v>1.00148226406273</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.94105214461986</v>
       </c>
       <c r="I11">
-        <v>0.003811868998655932</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.190070669647127</v>
+        <v>0.003808551554779882</v>
       </c>
       <c r="K11">
-        <v>3.541300516278255</v>
+        <v>6.188457491762961</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.54063445172784</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.143098639331072</v>
+        <v>2.142904302043178</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04106477443588119</v>
+        <v>0.04077977034580726</v>
       </c>
       <c r="E12">
-        <v>0.02098326367936032</v>
+        <v>0.02091330370485878</v>
       </c>
       <c r="F12">
-        <v>3.81730508374747</v>
+        <v>3.80900058939892</v>
       </c>
       <c r="G12">
-        <v>3.049023169166119</v>
+        <v>1.036568541482367</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.006935965629239</v>
       </c>
       <c r="I12">
-        <v>0.003563485946719513</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.368068705937247</v>
+        <v>0.003560622255026846</v>
       </c>
       <c r="K12">
-        <v>3.645443519248289</v>
+        <v>6.366356231012617</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.644725827528674</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.130303154941203</v>
+        <v>2.130112438530148</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0406350364907837</v>
+        <v>0.04035255127549675</v>
       </c>
       <c r="E13">
-        <v>0.02098646867197296</v>
+        <v>0.02091687575497936</v>
       </c>
       <c r="F13">
-        <v>3.790168518242126</v>
+        <v>3.781928260559141</v>
       </c>
       <c r="G13">
-        <v>3.027015885248005</v>
+        <v>1.028950161019466</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.992624605875449</v>
       </c>
       <c r="I13">
-        <v>0.003616058671012556</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.329599638770759</v>
+        <v>0.00361309453411307</v>
       </c>
       <c r="K13">
-        <v>3.622925917995275</v>
+        <v>6.327908932242764</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.622219577647115</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.088728951089024</v>
+        <v>2.088549736312302</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03925618019618327</v>
+        <v>0.03898178889891568</v>
       </c>
       <c r="E14">
-        <v>0.02099804248377346</v>
+        <v>0.02092964995819813</v>
       </c>
       <c r="F14">
-        <v>3.702514098422029</v>
+        <v>3.694480653288053</v>
       </c>
       <c r="G14">
-        <v>2.955950763707165</v>
+        <v>1.004341356655075</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.94641825624403</v>
       </c>
       <c r="I14">
-        <v>0.003791022780557984</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.20465528143967</v>
+        <v>0.003787741453228133</v>
       </c>
       <c r="K14">
-        <v>3.54982917784065</v>
+        <v>6.20303410338559</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.549158968500137</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.063379034474792</v>
+        <v>2.063206638071705</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03842841232060579</v>
+        <v>0.03815888941791457</v>
       </c>
       <c r="E15">
-        <v>0.02100598784309149</v>
+        <v>0.02093833328513206</v>
       </c>
       <c r="F15">
-        <v>3.649452981463526</v>
+        <v>3.641544235047633</v>
       </c>
       <c r="G15">
-        <v>2.912947693319325</v>
+        <v>0.9894441015519106</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.918463390677388</v>
       </c>
       <c r="I15">
-        <v>0.003900850197934069</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.128504098113638</v>
+        <v>0.003897382406203853</v>
       </c>
       <c r="K15">
-        <v>3.50530697831158</v>
+        <v>6.126924427770149</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.504658244634015</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.919748116907101</v>
+        <v>1.91961166202492</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03392127531070699</v>
+        <v>0.0336784095753444</v>
       </c>
       <c r="E16">
-        <v>0.02106442014770593</v>
+        <v>0.02100104055654128</v>
       </c>
       <c r="F16">
-        <v>3.354310317696786</v>
+        <v>3.347088753163092</v>
       </c>
       <c r="G16">
-        <v>2.673974615037693</v>
+        <v>0.9065716021745089</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.763197767688496</v>
       </c>
       <c r="I16">
-        <v>0.004569270733648878</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.697472099341184</v>
+        <v>0.004564848206179306</v>
       </c>
       <c r="K16">
-        <v>3.253711277085671</v>
+        <v>5.696115386300477</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.253176581287363</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.832965806271801</v>
+        <v>1.832848938224174</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03134609491597828</v>
+        <v>0.03111859942913142</v>
       </c>
       <c r="E17">
-        <v>0.02111156371711509</v>
+        <v>0.0210508520059749</v>
       </c>
       <c r="F17">
-        <v>3.180493955406291</v>
+        <v>3.173672341941085</v>
       </c>
       <c r="G17">
-        <v>2.533421474929611</v>
+        <v>0.857755369616072</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.671949244340922</v>
       </c>
       <c r="I17">
-        <v>0.005012450963599591</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.437351485934016</v>
+        <v>0.005007538043898752</v>
       </c>
       <c r="K17">
-        <v>3.102212021571191</v>
+        <v>5.436119852705048</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>3.101740211751633</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.783491336368087</v>
+        <v>1.783384946576405</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02992701008923859</v>
+        <v>0.029708038214455</v>
       </c>
       <c r="E18">
-        <v>0.02114275536924115</v>
+        <v>0.02108359623270673</v>
       </c>
       <c r="F18">
-        <v>3.082917920468077</v>
+        <v>3.076319415099476</v>
       </c>
       <c r="G18">
-        <v>2.454580718745987</v>
+        <v>0.8303463474138937</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.620790726096473</v>
       </c>
       <c r="I18">
-        <v>0.005278892742983654</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.289143628218255</v>
+        <v>0.005273730454692593</v>
       </c>
       <c r="K18">
-        <v>3.016004829602437</v>
+        <v>5.287980204937725</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>3.015566937956834</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.766811486996971</v>
+        <v>1.766708519629276</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02945653195131115</v>
+        <v>0.02924039536879874</v>
       </c>
       <c r="E19">
-        <v>0.02115400993066174</v>
+        <v>0.02109537968677344</v>
       </c>
       <c r="F19">
-        <v>3.050269242944125</v>
+        <v>3.043745173221993</v>
       </c>
       <c r="G19">
-        <v>2.428211035754927</v>
+        <v>0.8211744477662677</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.603684219576806</v>
       </c>
       <c r="I19">
-        <v>0.005371029855300691</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.239189256211915</v>
+        <v>0.005365788541274341</v>
       </c>
       <c r="K19">
-        <v>2.986966419842176</v>
+        <v>5.238048334544516</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.986539654838907</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.842157311717813</v>
+        <v>1.842038442558732</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03161363949805818</v>
+        <v>0.03138454154788661</v>
       </c>
       <c r="E20">
-        <v>0.02110612178789051</v>
+        <v>0.02104512423314198</v>
       </c>
       <c r="F20">
-        <v>3.198743168223871</v>
+        <v>3.191879717822047</v>
       </c>
       <c r="G20">
-        <v>2.548171732827129</v>
+        <v>0.8628811371803238</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.681522563530962</v>
       </c>
       <c r="I20">
-        <v>0.004964065985260557</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.464892469307557</v>
+        <v>0.004959201834820348</v>
       </c>
       <c r="K20">
-        <v>3.118240561248683</v>
+        <v>5.463647919169034</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.117762297381745</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.100915907962815</v>
+        <v>2.100733363004281</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03965762406581064</v>
+        <v>0.03938087433979121</v>
       </c>
       <c r="E21">
-        <v>0.0209944640056321</v>
+        <v>0.02092571834718626</v>
       </c>
       <c r="F21">
-        <v>3.728127265793404</v>
+        <v>3.720033494930618</v>
       </c>
       <c r="G21">
-        <v>2.976713086382333</v>
+        <v>1.011532290900107</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.959916681682287</v>
       </c>
       <c r="I21">
-        <v>0.003739073720423924</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.241273898708755</v>
+        <v>0.003735883913987159</v>
       </c>
       <c r="K21">
-        <v>3.571246224524145</v>
+        <v>6.239632527877404</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.57056554188074</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.275063428527858</v>
+        <v>2.274829449519927</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04564632745037045</v>
+        <v>0.04533455890071281</v>
       </c>
       <c r="E22">
-        <v>0.02095959248869228</v>
+        <v>0.02088590759863784</v>
       </c>
       <c r="F22">
-        <v>4.101561853310301</v>
+        <v>4.092578207150694</v>
       </c>
       <c r="G22">
-        <v>3.279731962606988</v>
+        <v>1.116368950050088</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.157027320571956</v>
       </c>
       <c r="I22">
-        <v>0.003055618669224547</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.765242660060721</v>
+        <v>0.003053866863683918</v>
       </c>
       <c r="K22">
-        <v>3.878255418236307</v>
+        <v>6.763295170734438</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.877414072179675</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181596096838803</v>
+        <v>2.181390631933766</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04237304808308551</v>
+        <v>0.04208038549719362</v>
       </c>
       <c r="E23">
-        <v>0.0209746120660288</v>
+        <v>0.02090355426627788</v>
       </c>
       <c r="F23">
-        <v>3.899402149864102</v>
+        <v>3.890902698095999</v>
       </c>
       <c r="G23">
-        <v>3.115621054718204</v>
+        <v>1.059616308697727</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.050251021464604</v>
       </c>
       <c r="I23">
-        <v>0.003408897431204316</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.483852117543506</v>
+        <v>0.003406343875862028</v>
       </c>
       <c r="K23">
-        <v>3.713250375353198</v>
+        <v>6.482073081877303</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.712497863065323</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.838000542052782</v>
+        <v>1.837882580005896</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03149249307912783</v>
+        <v>0.0312641205668136</v>
       </c>
       <c r="E24">
-        <v>0.02110856936809746</v>
+        <v>0.02104770098438369</v>
       </c>
       <c r="F24">
-        <v>3.1904854309999</v>
+        <v>3.183640916111784</v>
       </c>
       <c r="G24">
-        <v>2.541497072311486</v>
+        <v>0.8605617516867028</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.677190446288904</v>
       </c>
       <c r="I24">
-        <v>0.004985904691884979</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.452437061283661</v>
+        <v>0.004981018391986947</v>
       </c>
       <c r="K24">
-        <v>3.110991307858541</v>
+        <v>5.451198362272379</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.110515968749198</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.483820165867229</v>
+        <v>1.483767162466819</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02207530709189598</v>
+        <v>0.02190443871823788</v>
       </c>
       <c r="E25">
-        <v>0.0214084406167192</v>
+        <v>0.02135925729873023</v>
       </c>
       <c r="F25">
-        <v>2.515500007926107</v>
+        <v>2.510181648100996</v>
       </c>
       <c r="G25">
-        <v>1.997062972484457</v>
+        <v>0.6708507762208171</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.324346977270466</v>
       </c>
       <c r="I25">
-        <v>0.007122459015101779</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.392315540202475</v>
+        <v>0.007116285615779372</v>
       </c>
       <c r="K25">
-        <v>2.496074706892699</v>
+        <v>4.391520292297628</v>
       </c>
       <c r="L25">
+        <v>2.495814229227207</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232588108150992</v>
+        <v>2.874728091192253</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01632177106391097</v>
+        <v>0.8092016763201855</v>
       </c>
       <c r="E2">
-        <v>0.02171662545822972</v>
+        <v>0.6466762313313552</v>
       </c>
       <c r="F2">
-        <v>2.067322722573465</v>
+        <v>4.700242739961254</v>
       </c>
       <c r="G2">
-        <v>0.5458684946952275</v>
+        <v>0.000784304094302381</v>
       </c>
       <c r="H2">
-        <v>1.093952028920981</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009003242366627973</v>
+        <v>0.6979191727595691</v>
       </c>
       <c r="K2">
-        <v>3.640195515335023</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.062480287544631</v>
+        <v>1.888991860013277</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.139296885227694</v>
+      </c>
+      <c r="N2">
+        <v>1.205765570359766</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066542522268435</v>
+        <v>2.530484673704564</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01310798086850795</v>
+        <v>0.6875339198959125</v>
       </c>
       <c r="E3">
-        <v>0.02203657266000203</v>
+        <v>0.5510925512602114</v>
       </c>
       <c r="F3">
-        <v>1.791229990510971</v>
+        <v>4.24235882055288</v>
       </c>
       <c r="G3">
-        <v>0.4677737916802585</v>
+        <v>0.0008013032107060316</v>
       </c>
       <c r="H3">
-        <v>0.9511690039072249</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0104539179371268</v>
+        <v>0.5997831146568871</v>
       </c>
       <c r="K3">
-        <v>3.142952777309716</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.776842793634032</v>
+        <v>1.633193885716736</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.9936021048271968</v>
+      </c>
+      <c r="N3">
+        <v>1.291568327308383</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9661668916170356</v>
+        <v>2.325839874391988</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01135150539910157</v>
+        <v>0.6157664577911817</v>
       </c>
       <c r="E4">
-        <v>0.0222709021133376</v>
+        <v>0.4943001174861337</v>
       </c>
       <c r="F4">
-        <v>1.631154676694663</v>
+        <v>3.977806277072659</v>
       </c>
       <c r="G4">
-        <v>0.4223989029876947</v>
+        <v>0.0008118856976189013</v>
       </c>
       <c r="H4">
-        <v>0.868760317110528</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0114225656851934</v>
+        <v>0.5412101174820805</v>
       </c>
       <c r="K4">
-        <v>2.841904092049262</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.604363337118969</v>
+        <v>1.48145468505561</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.9070731240754171</v>
+      </c>
+      <c r="N4">
+        <v>1.346242896703764</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9255965634430936</v>
+        <v>2.24389805008343</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01068208599139808</v>
+        <v>0.5871316620523146</v>
       </c>
       <c r="E5">
-        <v>0.02237586745458398</v>
+        <v>0.4715455587936788</v>
       </c>
       <c r="F5">
-        <v>1.567987096678749</v>
+        <v>3.87361383862924</v>
       </c>
       <c r="G5">
-        <v>0.4044677683071853</v>
+        <v>0.0008162427165854007</v>
       </c>
       <c r="H5">
-        <v>0.8363296212867652</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01183597900926481</v>
+        <v>0.5176819397222232</v>
       </c>
       <c r="K5">
-        <v>2.720087008203876</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.534670557775542</v>
+        <v>1.420745316038278</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.8724376673274392</v>
+      </c>
+      <c r="N5">
+        <v>1.369003781599872</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9188783255684427</v>
+        <v>2.230373068490167</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01057351135571238</v>
+        <v>0.5824104138617656</v>
       </c>
       <c r="E6">
-        <v>0.02239386787109332</v>
+        <v>0.467788342627216</v>
       </c>
       <c r="F6">
-        <v>1.557614457294989</v>
+        <v>3.856516308848711</v>
       </c>
       <c r="G6">
-        <v>0.4015217312302184</v>
+        <v>0.0008169691037631826</v>
       </c>
       <c r="H6">
-        <v>0.8310094553372664</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01190572927147127</v>
+        <v>0.5137935139781433</v>
       </c>
       <c r="K6">
-        <v>2.699905859731444</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.523130338671152</v>
+        <v>1.410726920969154</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.8667213365238595</v>
+      </c>
+      <c r="N6">
+        <v>1.372811694537678</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9656184736865896</v>
+        <v>2.324729187295929</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01134229966063316</v>
+        <v>0.615377959445766</v>
       </c>
       <c r="E7">
-        <v>0.02227227940860121</v>
+        <v>0.4939917738753081</v>
       </c>
       <c r="F7">
-        <v>1.630294802067837</v>
+        <v>3.97638714301263</v>
       </c>
       <c r="G7">
-        <v>0.4221549208642301</v>
+        <v>0.0008119442673112696</v>
       </c>
       <c r="H7">
-        <v>0.8683184944754032</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0114280666231652</v>
+        <v>0.5408915281544893</v>
       </c>
       <c r="K7">
-        <v>2.840257988473269</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.603421198507476</v>
+        <v>1.480631638283768</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.9066036190146747</v>
+      </c>
+      <c r="N7">
+        <v>1.346547936893757</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.174968044334207</v>
+        <v>2.754483667511579</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01516338251267513</v>
+        <v>0.7665577677128113</v>
       </c>
       <c r="E8">
-        <v>0.02181904541670576</v>
+        <v>0.6132678680709773</v>
       </c>
       <c r="F8">
-        <v>1.969965680851914</v>
+        <v>4.538559000730544</v>
       </c>
       <c r="G8">
-        <v>0.5183502968814224</v>
+        <v>0.0007901405812501555</v>
       </c>
       <c r="H8">
-        <v>1.043518610714344</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.009486682298163185</v>
+        <v>0.6636786970070148</v>
       </c>
       <c r="K8">
-        <v>3.467727888477299</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.963302481015333</v>
+        <v>1.799549675306025</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.088381746002632</v>
+      </c>
+      <c r="N8">
+        <v>1.23492401958643</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.601299329936722</v>
+        <v>3.663485055517015</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02481561643381625</v>
+        <v>1.093388631880771</v>
       </c>
       <c r="E9">
-        <v>0.02123409092742445</v>
+        <v>0.8670979860107906</v>
       </c>
       <c r="F9">
-        <v>2.727423124189585</v>
+        <v>5.803094721964726</v>
       </c>
       <c r="G9">
-        <v>0.732079300449783</v>
+        <v>0.0007480892472468919</v>
       </c>
       <c r="H9">
-        <v>1.437872951882539</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.006344483203793772</v>
+        <v>0.9223938821392892</v>
       </c>
       <c r="K9">
-        <v>4.743053181515677</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2.699275986896097</v>
+        <v>2.478868752297899</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.474125827654646</v>
+      </c>
+      <c r="N9">
+        <v>1.032911439634368</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.929574862374778</v>
+        <v>4.39437253008532</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03397940228277108</v>
+        <v>1.36473026476304</v>
       </c>
       <c r="E10">
-        <v>0.02099591660129541</v>
+        <v>1.074534089670351</v>
       </c>
       <c r="F10">
-        <v>3.367219186988564</v>
+        <v>6.885002592133077</v>
       </c>
       <c r="G10">
-        <v>0.9122377194980231</v>
+        <v>0.0007168352503757705</v>
       </c>
       <c r="H10">
-        <v>1.773799588909867</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.004515946927594161</v>
+        <v>1.13165685755402</v>
       </c>
       <c r="K10">
-        <v>5.725984972788382</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.270590404676611</v>
+        <v>3.031670292866238</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.786066715400139</v>
+      </c>
+      <c r="N10">
+        <v>0.8966555323641074</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.083696636737614</v>
+        <v>4.747526316412234</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03882345142127974</v>
+        <v>1.498995697088958</v>
       </c>
       <c r="E11">
-        <v>0.02093125973033416</v>
+        <v>1.176256060177337</v>
       </c>
       <c r="F11">
-        <v>3.684320980502292</v>
+        <v>7.427248537964175</v>
       </c>
       <c r="G11">
-        <v>1.00148226406273</v>
+        <v>0.0007022919873751167</v>
       </c>
       <c r="H11">
-        <v>1.94105214461986</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.003808551554779882</v>
+        <v>1.233657297329131</v>
       </c>
       <c r="K11">
-        <v>6.188457491762961</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3.54063445172784</v>
+        <v>3.301357617696169</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.937495120993049</v>
+      </c>
+      <c r="N11">
+        <v>0.8378807634912349</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.142904302043178</v>
+        <v>4.885027823864846</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04077977034580726</v>
+        <v>1.551874650722681</v>
       </c>
       <c r="E12">
-        <v>0.02091330370485878</v>
+        <v>1.216165811404338</v>
       </c>
       <c r="F12">
-        <v>3.80900058939892</v>
+        <v>7.641746949667521</v>
       </c>
       <c r="G12">
-        <v>1.036568541482367</v>
+        <v>0.0006967091612004158</v>
       </c>
       <c r="H12">
-        <v>2.006935965629239</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.003560622255026846</v>
+        <v>1.273573132833519</v>
       </c>
       <c r="K12">
-        <v>6.366356231012617</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>3.644725827528674</v>
+        <v>3.406864732215524</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.996591679949788</v>
+      </c>
+      <c r="N12">
+        <v>0.8161510025763334</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.130112438530148</v>
+        <v>4.855231380313683</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04035255127549675</v>
+        <v>1.540386330469715</v>
       </c>
       <c r="E13">
-        <v>0.02091687575497936</v>
+        <v>1.20750222059317</v>
       </c>
       <c r="F13">
-        <v>3.781928260559141</v>
+        <v>7.5951053866238</v>
       </c>
       <c r="G13">
-        <v>1.028950161019466</v>
+        <v>0.0006979154452612001</v>
       </c>
       <c r="H13">
-        <v>1.992624605875449</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.00361309453411307</v>
+        <v>1.264913038375482</v>
       </c>
       <c r="K13">
-        <v>6.327908932242764</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3.622219577647115</v>
+        <v>3.383976615513575</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.98377873238752</v>
+      </c>
+      <c r="N13">
+        <v>0.8208062050901006</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.088549736312302</v>
+        <v>4.758757651452981</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03898178889891568</v>
+        <v>1.503301974212633</v>
       </c>
       <c r="E14">
-        <v>0.02092964995819813</v>
+        <v>1.179509306432095</v>
       </c>
       <c r="F14">
-        <v>3.694480653288053</v>
+        <v>7.44469837764683</v>
       </c>
       <c r="G14">
-        <v>1.004341356655075</v>
+        <v>0.0007018343983624924</v>
       </c>
       <c r="H14">
-        <v>1.94641825624403</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.003787741453228133</v>
+        <v>1.236913172671365</v>
       </c>
       <c r="K14">
-        <v>6.20303410338559</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3.549158968500137</v>
+        <v>3.309964711555381</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.942319245199656</v>
+      </c>
+      <c r="N14">
+        <v>0.8360820375540285</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.063206638071705</v>
+        <v>4.700183443377114</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03815888941791457</v>
+        <v>1.480868705805108</v>
       </c>
       <c r="E15">
-        <v>0.02093833328513206</v>
+        <v>1.162555556701705</v>
       </c>
       <c r="F15">
-        <v>3.641544235047633</v>
+        <v>7.353831546079846</v>
       </c>
       <c r="G15">
-        <v>0.9894441015519106</v>
+        <v>0.0007042240128151263</v>
       </c>
       <c r="H15">
-        <v>1.918463390677388</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.003897382406203853</v>
+        <v>1.219941525201506</v>
       </c>
       <c r="K15">
-        <v>6.126924427770149</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3.504658244634015</v>
+        <v>3.265097564002247</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.917165967288014</v>
+      </c>
+      <c r="N15">
+        <v>0.8455098222373962</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.91961166202492</v>
+        <v>4.371771989741035</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0336784095753444</v>
+        <v>1.356211118014556</v>
       </c>
       <c r="E16">
-        <v>0.02100104055654128</v>
+        <v>1.068060381408642</v>
       </c>
       <c r="F16">
-        <v>3.347088753163092</v>
+        <v>6.850727565855607</v>
       </c>
       <c r="G16">
-        <v>0.9065716021745089</v>
+        <v>0.0007177768717268461</v>
       </c>
       <c r="H16">
-        <v>1.763197767688496</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004564848206179306</v>
+        <v>1.12515226672889</v>
       </c>
       <c r="K16">
-        <v>5.696115386300477</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.253176581287363</v>
+        <v>3.014472116435286</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.776392445243502</v>
+      </c>
+      <c r="N16">
+        <v>0.9005663633858205</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.832848938224174</v>
+        <v>4.176094466351458</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03111859942913142</v>
+        <v>1.28280693524718</v>
       </c>
       <c r="E17">
-        <v>0.0210508520059749</v>
+        <v>1.012180020315853</v>
       </c>
       <c r="F17">
-        <v>3.173672341941085</v>
+        <v>6.55613492517648</v>
       </c>
       <c r="G17">
-        <v>0.857755369616072</v>
+        <v>0.0007259898487375902</v>
       </c>
       <c r="H17">
-        <v>1.671949244340922</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.005007538043898752</v>
+        <v>1.068937617133884</v>
       </c>
       <c r="K17">
-        <v>5.436119852705048</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.101740211751633</v>
+        <v>2.865860334054872</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.692711195186803</v>
+      </c>
+      <c r="N17">
+        <v>0.9352047931749894</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.783384946576405</v>
+        <v>4.065432612890731</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.029708038214455</v>
+        <v>1.241570486510852</v>
       </c>
       <c r="E18">
-        <v>0.02108359623270673</v>
+        <v>0.9807068911475767</v>
       </c>
       <c r="F18">
-        <v>3.076319415099476</v>
+        <v>6.391261437057494</v>
       </c>
       <c r="G18">
-        <v>0.8303463474138937</v>
+        <v>0.0007306852228093697</v>
       </c>
       <c r="H18">
-        <v>1.620790726096473</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.005273730454692593</v>
+        <v>1.037221681715039</v>
       </c>
       <c r="K18">
-        <v>5.287980204937725</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.015566937956834</v>
+        <v>2.782040525231309</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.645448023890012</v>
+      </c>
+      <c r="N18">
+        <v>0.955425118309158</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.766708519629276</v>
+        <v>4.028267756137097</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02924039536879874</v>
+        <v>1.227765263978824</v>
       </c>
       <c r="E19">
-        <v>0.02109537968677344</v>
+        <v>0.9701568466178259</v>
       </c>
       <c r="F19">
-        <v>3.043745173221993</v>
+        <v>6.33617220145166</v>
       </c>
       <c r="G19">
-        <v>0.8211744477662677</v>
+        <v>0.0007322708385015793</v>
       </c>
       <c r="H19">
-        <v>1.603684219576806</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.005365788541274341</v>
+        <v>1.026581259992639</v>
       </c>
       <c r="K19">
-        <v>5.238048334544516</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2.986539654838907</v>
+        <v>2.753925673107148</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.629584695243295</v>
+      </c>
+      <c r="N19">
+        <v>0.9623207070286668</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.842038442558732</v>
+        <v>4.196724359480299</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03138454154788661</v>
+        <v>1.290516138693306</v>
       </c>
       <c r="E20">
-        <v>0.02104512423314198</v>
+        <v>1.018057395138229</v>
       </c>
       <c r="F20">
-        <v>3.191879717822047</v>
+        <v>6.587009660763471</v>
       </c>
       <c r="G20">
-        <v>0.8628811371803238</v>
+        <v>0.0007251186952036509</v>
       </c>
       <c r="H20">
-        <v>1.681522563530962</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.004959201834820348</v>
+        <v>1.074855932478613</v>
       </c>
       <c r="K20">
-        <v>5.463647919169034</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.117762297381745</v>
+        <v>2.881503945454568</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.7015269424341</v>
+      </c>
+      <c r="N20">
+        <v>0.9314862949015748</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.100733363004281</v>
+        <v>4.78698443530044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03938087433979121</v>
+        <v>1.514134696183817</v>
       </c>
       <c r="E21">
-        <v>0.02092571834718626</v>
+        <v>1.187690584761199</v>
       </c>
       <c r="F21">
-        <v>3.720033494930618</v>
+        <v>7.488609182352945</v>
       </c>
       <c r="G21">
-        <v>1.011532290900107</v>
+        <v>0.0007006856347183447</v>
       </c>
       <c r="H21">
-        <v>1.959916681682287</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.003735883913987159</v>
+        <v>1.245099380408476</v>
       </c>
       <c r="K21">
-        <v>6.239632527877404</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3.57056554188074</v>
+        <v>3.331604694941575</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.954445634424516</v>
+      </c>
+      <c r="N21">
+        <v>0.8315802352582295</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.274829449519927</v>
+        <v>5.195295964779234</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04533455890071281</v>
+        <v>1.672499783277686</v>
       </c>
       <c r="E22">
-        <v>0.02088590759863784</v>
+        <v>1.306901762655826</v>
       </c>
       <c r="F22">
-        <v>4.092578207150694</v>
+        <v>8.13267598688816</v>
       </c>
       <c r="G22">
-        <v>1.116368950050088</v>
+        <v>0.0006842555541231306</v>
       </c>
       <c r="H22">
-        <v>2.157027320571956</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.003053866863683918</v>
+        <v>1.364115707684704</v>
       </c>
       <c r="K22">
-        <v>6.763295170734438</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>3.877414072179675</v>
+        <v>3.646041646260187</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.130242715916907</v>
+      </c>
+      <c r="N22">
+        <v>0.7694033817432739</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181390631933766</v>
+        <v>4.974976696239594</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04208038549719362</v>
+        <v>1.58665581001884</v>
       </c>
       <c r="E23">
-        <v>0.02090355426627788</v>
+        <v>1.242371451298609</v>
       </c>
       <c r="F23">
-        <v>3.890902698095999</v>
+        <v>7.783083975370005</v>
       </c>
       <c r="G23">
-        <v>1.059616308697727</v>
+        <v>0.0006930790051026464</v>
       </c>
       <c r="H23">
-        <v>2.050251021464604</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.003406343875862028</v>
+        <v>1.299752132237614</v>
       </c>
       <c r="K23">
-        <v>6.482073081877303</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3.712497863065323</v>
+        <v>3.476043684919262</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.03529429628982</v>
+      </c>
+      <c r="N23">
+        <v>0.8022759826359476</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.837882580005896</v>
+        <v>4.187391923489201</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0312641205668136</v>
+        <v>1.287027837077176</v>
       </c>
       <c r="E24">
-        <v>0.02104770098438369</v>
+        <v>1.015398222718105</v>
       </c>
       <c r="F24">
-        <v>3.183640916111784</v>
+        <v>6.573037340933439</v>
       </c>
       <c r="G24">
-        <v>0.8605617516867028</v>
+        <v>0.0007255126239372957</v>
       </c>
       <c r="H24">
-        <v>1.677190446288904</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.004981018391986947</v>
+        <v>1.072178407107515</v>
       </c>
       <c r="K24">
-        <v>5.451198362272379</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.110515968749198</v>
+        <v>2.874426479678306</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.697538734336959</v>
+      </c>
+      <c r="N24">
+        <v>0.9331664788058305</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.483767162466819</v>
+        <v>3.408440741808874</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02190443871823788</v>
+        <v>1.000592779545286</v>
       </c>
       <c r="E25">
-        <v>0.02135925729873023</v>
+        <v>0.7955158267124602</v>
       </c>
       <c r="F25">
-        <v>2.510181648100996</v>
+        <v>5.438810449964109</v>
       </c>
       <c r="G25">
-        <v>0.6708507762208171</v>
+        <v>0.0007594603168711516</v>
       </c>
       <c r="H25">
-        <v>1.324346977270466</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.007116285615779372</v>
+        <v>0.8497528891294905</v>
       </c>
       <c r="K25">
-        <v>4.391520292297628</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.495814229227207</v>
+        <v>2.287461027589359</v>
       </c>
       <c r="M25">
+        <v>1.365678639505461</v>
+      </c>
+      <c r="N25">
+        <v>1.085584872574891</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.874728091192253</v>
+        <v>0.2715290327915767</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8092016763201855</v>
+        <v>0.0612065159374211</v>
       </c>
       <c r="E2">
-        <v>0.6466762313313552</v>
+        <v>3.132164306745324</v>
       </c>
       <c r="F2">
-        <v>4.700242739961254</v>
+        <v>0.3238366704536091</v>
       </c>
       <c r="G2">
-        <v>0.000784304094302381</v>
+        <v>0.2692272067826309</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1088912754987419</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6979191727595691</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.888991860013277</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.139296885227694</v>
+        <v>17.13873601777033</v>
       </c>
       <c r="N2">
-        <v>1.205765570359766</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7544996170823453</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.530484673704564</v>
+        <v>0.2367236730539588</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6875339198959125</v>
+        <v>0.05331014177607329</v>
       </c>
       <c r="E3">
-        <v>0.5510925512602114</v>
+        <v>2.654472787306858</v>
       </c>
       <c r="F3">
-        <v>4.24235882055288</v>
+        <v>0.2710883651249318</v>
       </c>
       <c r="G3">
-        <v>0.0008013032107060316</v>
+        <v>0.2182628169198821</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0958639409224844</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5997831146568871</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.633193885716736</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9936021048271968</v>
+        <v>14.70023548877029</v>
       </c>
       <c r="N3">
-        <v>1.291568327308383</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.6185730928673223</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.325839874391988</v>
+        <v>0.2156530864425577</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6157664577911817</v>
+        <v>0.04847421157796816</v>
       </c>
       <c r="E4">
-        <v>0.4943001174861337</v>
+        <v>2.375471048651136</v>
       </c>
       <c r="F4">
-        <v>3.977806277072659</v>
+        <v>0.2413030635803466</v>
       </c>
       <c r="G4">
-        <v>0.0008118856976189013</v>
+        <v>0.1897770821964286</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.08926659200402298</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5412101174820805</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.48145468505561</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9070731240754171</v>
+        <v>13.24576498236792</v>
       </c>
       <c r="N4">
-        <v>1.346242896703764</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.5439909503606088</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.24389805008343</v>
+        <v>0.2071309065903932</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5871316620523146</v>
+        <v>0.0465048115117952</v>
       </c>
       <c r="E5">
-        <v>0.4715455587936788</v>
+        <v>2.264623113113387</v>
       </c>
       <c r="F5">
-        <v>3.87361383862924</v>
+        <v>0.2297237747109904</v>
       </c>
       <c r="G5">
-        <v>0.0008162427165854007</v>
+        <v>0.1787638810917755</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.08688370083201846</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5176819397222232</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.420745316038278</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8724376673274392</v>
+        <v>12.66141157287544</v>
       </c>
       <c r="N5">
-        <v>1.369003781599872</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.5154972347427531</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.230373068490167</v>
+        <v>0.2057193879185633</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5824104138617656</v>
+        <v>0.0461778253639693</v>
       </c>
       <c r="E6">
-        <v>0.467788342627216</v>
+        <v>2.246369905392172</v>
       </c>
       <c r="F6">
-        <v>3.856516308848711</v>
+        <v>0.2278322490445248</v>
       </c>
       <c r="G6">
-        <v>0.0008169691037631826</v>
+        <v>0.1769681796455131</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0865052497170069</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5137935139781433</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.410726920969154</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8667213365238595</v>
+        <v>12.56482334805654</v>
       </c>
       <c r="N6">
-        <v>1.372811694537678</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.5108718415217197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.324729187295929</v>
+        <v>0.2155379068426413</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.615377959445766</v>
+        <v>0.04844764851169003</v>
       </c>
       <c r="E7">
-        <v>0.4939917738753081</v>
+        <v>2.373965461415352</v>
       </c>
       <c r="F7">
-        <v>3.97638714301263</v>
+        <v>0.2411447559093887</v>
       </c>
       <c r="G7">
-        <v>0.0008119442673112696</v>
+        <v>0.1896262786623808</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.08923327470902365</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5408915281544893</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.480631638283768</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9066036190146747</v>
+        <v>13.23785319093048</v>
       </c>
       <c r="N7">
-        <v>1.346547936893757</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.5435993859947956</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.754483667511579</v>
+        <v>0.2594585974070753</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7665577677128113</v>
+        <v>0.05847998665721121</v>
       </c>
       <c r="E8">
-        <v>0.6132678680709773</v>
+        <v>2.963982414797584</v>
       </c>
       <c r="F8">
-        <v>4.538559000730544</v>
+        <v>0.3050460245521265</v>
       </c>
       <c r="G8">
-        <v>0.0007901405812501555</v>
+        <v>0.250999300511431</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1040778263176136</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6636786970070148</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.799549675306025</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1.088381746002632</v>
+        <v>16.28745331037382</v>
       </c>
       <c r="N8">
-        <v>1.23492401958643</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.7055706365324141</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.663485055517015</v>
+        <v>0.3485826620505179</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.093388631880771</v>
+        <v>0.07836918907066348</v>
       </c>
       <c r="E9">
-        <v>0.8670979860107906</v>
+        <v>4.279995771775418</v>
       </c>
       <c r="F9">
-        <v>5.803094721964726</v>
+        <v>0.456411236646133</v>
       </c>
       <c r="G9">
-        <v>0.0007480892472468919</v>
+        <v>0.3999156439187743</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1469547262368991</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9223938821392892</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.478868752297899</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.474125827654646</v>
+        <v>22.75018419951903</v>
       </c>
       <c r="N9">
-        <v>1.032911439634368</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.112534509225981</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.39437253008532</v>
+        <v>0.416995536202009</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.36473026476304</v>
+        <v>0.09335947060674243</v>
       </c>
       <c r="E10">
-        <v>1.074534089670351</v>
+        <v>5.437320556000799</v>
       </c>
       <c r="F10">
-        <v>6.885002592133077</v>
+        <v>0.593671922203491</v>
       </c>
       <c r="G10">
-        <v>0.0007168352503757705</v>
+        <v>0.5387013506796023</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1918457684543853</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.13165685755402</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.031670292866238</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.786066715400139</v>
+        <v>28.07856256781366</v>
       </c>
       <c r="N10">
-        <v>0.8966555323641074</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.501848817066019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.747526316412234</v>
+        <v>0.4491164116430468</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.498995697088958</v>
+        <v>0.1003580316197912</v>
       </c>
       <c r="E11">
-        <v>1.176256060177337</v>
+        <v>6.041507998502368</v>
       </c>
       <c r="F11">
-        <v>7.427248537964175</v>
+        <v>0.6653311442634475</v>
       </c>
       <c r="G11">
-        <v>0.0007022919873751167</v>
+        <v>0.6124598063151723</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2169329430169284</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.233657297329131</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.301357617696169</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.937495120993049</v>
+        <v>30.7358541974877</v>
       </c>
       <c r="N11">
-        <v>0.8378807634912349</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.711254983973873</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.885027823864846</v>
+        <v>0.4614686576578606</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.551874650722681</v>
+        <v>0.1030481185572114</v>
       </c>
       <c r="E12">
-        <v>1.216165811404338</v>
+        <v>6.286722512872927</v>
       </c>
       <c r="F12">
-        <v>7.641746949667521</v>
+        <v>0.6942675645443899</v>
       </c>
       <c r="G12">
-        <v>0.0006967091612004158</v>
+        <v>0.6424904836238596</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2273394864001688</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.273573132833519</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.406864732215524</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.996591679949788</v>
+        <v>31.79071995859795</v>
       </c>
       <c r="N12">
-        <v>0.8161510025763334</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.796905998049397</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.855231380313683</v>
+        <v>0.4587990525322994</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.540386330469715</v>
+        <v>0.1024666709727953</v>
       </c>
       <c r="E13">
-        <v>1.20750222059317</v>
+        <v>6.233063958918507</v>
       </c>
       <c r="F13">
-        <v>7.5951053866238</v>
+        <v>0.6879453378097367</v>
       </c>
       <c r="G13">
-        <v>0.0006979154452612001</v>
+        <v>0.6359171315235841</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2250528787994881</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.264913038375482</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.383976615513575</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.98377873238752</v>
+        <v>31.56104385965023</v>
       </c>
       <c r="N13">
-        <v>0.8208062050901006</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.778140232543052</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.758757651452981</v>
+        <v>0.4501285273446456</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.503301974212633</v>
+        <v>0.1005784372342475</v>
       </c>
       <c r="E14">
-        <v>1.179509306432095</v>
+        <v>6.061312003502081</v>
       </c>
       <c r="F14">
-        <v>7.44469837764683</v>
+        <v>0.667672109534962</v>
       </c>
       <c r="G14">
-        <v>0.0007018343983624924</v>
+        <v>0.6148840478911382</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.217769155745458</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.236913172671365</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.309964711555381</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.942319245199656</v>
+        <v>30.82154901563212</v>
       </c>
       <c r="N14">
-        <v>0.8360820375540285</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.718161345995782</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.700183443377114</v>
+        <v>0.4448438255860481</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.480868705805108</v>
+        <v>0.09942758829550513</v>
       </c>
       <c r="E15">
-        <v>1.162555556701705</v>
+        <v>5.95845329514944</v>
       </c>
       <c r="F15">
-        <v>7.353831546079846</v>
+        <v>0.655506687078848</v>
       </c>
       <c r="G15">
-        <v>0.0007042240128151263</v>
+        <v>0.6022959553134086</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2134346794337745</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.219941525201506</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.265097564002247</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.917165967288014</v>
+        <v>30.37549976723898</v>
       </c>
       <c r="N15">
-        <v>0.8455098222373962</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.682314979103325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.371771989741035</v>
+        <v>0.4149199237152459</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.356211118014556</v>
+        <v>0.09290674592403292</v>
       </c>
       <c r="E16">
-        <v>1.068060381408642</v>
+        <v>5.399786854716069</v>
       </c>
       <c r="F16">
-        <v>6.850727565855607</v>
+        <v>0.5892101256046303</v>
       </c>
       <c r="G16">
-        <v>0.0007177768717268461</v>
+        <v>0.5341378611455667</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1903178961047018</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.12515226672889</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.014472116435286</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.776392445243502</v>
+        <v>27.91071863295599</v>
       </c>
       <c r="N16">
-        <v>0.9005663633858205</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.488942148941589</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.176094466351458</v>
+        <v>0.3968454200058034</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.28280693524718</v>
+        <v>0.08896024847036443</v>
       </c>
       <c r="E17">
-        <v>1.012180020315853</v>
+        <v>5.079915152739176</v>
       </c>
       <c r="F17">
-        <v>6.55613492517648</v>
+        <v>0.5511762309356243</v>
       </c>
       <c r="G17">
-        <v>0.0007259898487375902</v>
+        <v>0.4953769885981956</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1774681691793916</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.068937617133884</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.865860334054872</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.692711195186803</v>
+        <v>26.46699005031365</v>
       </c>
       <c r="N17">
-        <v>0.9352047931749894</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.379576527555116</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.065432612890731</v>
+        <v>0.3865400771367149</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.241570486510852</v>
+        <v>0.08670607643082917</v>
       </c>
       <c r="E18">
-        <v>0.9807068911475767</v>
+        <v>4.902825967950065</v>
       </c>
       <c r="F18">
-        <v>6.391261437057494</v>
+        <v>0.5301306451208703</v>
       </c>
       <c r="G18">
-        <v>0.0007306852228093697</v>
+        <v>0.4740377742785427</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1704980572651777</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.037221681715039</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.782040525231309</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.645448023890012</v>
+        <v>25.65736316602755</v>
       </c>
       <c r="N18">
-        <v>0.955425118309158</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.319578855792315</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.028267756137097</v>
+        <v>0.3830653305711138</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.227765263978824</v>
+        <v>0.08594524001497206</v>
       </c>
       <c r="E19">
-        <v>0.9701568466178259</v>
+        <v>4.843931512256489</v>
       </c>
       <c r="F19">
-        <v>6.33617220145166</v>
+        <v>0.5231363807602705</v>
       </c>
       <c r="G19">
-        <v>0.0007322708385015793</v>
+        <v>0.4669632521535902</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1682047945585623</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.026581259992639</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.753925673107148</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.629584695243295</v>
+        <v>25.38645774026571</v>
       </c>
       <c r="N19">
-        <v>0.9623207070286668</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.299723672333045</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.196724359480299</v>
+        <v>0.3987598309588947</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.290516138693306</v>
+        <v>0.08937865095388275</v>
       </c>
       <c r="E20">
-        <v>1.018057395138229</v>
+        <v>5.113223134279593</v>
       </c>
       <c r="F20">
-        <v>6.587009660763471</v>
+        <v>0.5551362761844061</v>
       </c>
       <c r="G20">
-        <v>0.0007251186952036509</v>
+        <v>0.4994009833482238</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1787911289084434</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.074855932478613</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.881503945454568</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.7015269424341</v>
+        <v>26.61844212344198</v>
       </c>
       <c r="N20">
-        <v>0.9314862949015748</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.390907932508725</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.78698443530044</v>
+        <v>0.4526696913603274</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.514134696183817</v>
+        <v>0.1011318215208519</v>
       </c>
       <c r="E21">
-        <v>1.187690584761199</v>
+        <v>6.111257206137253</v>
       </c>
       <c r="F21">
-        <v>7.488609182352945</v>
+        <v>0.6735730183637898</v>
       </c>
       <c r="G21">
-        <v>0.0007006856347183447</v>
+        <v>0.6209989771041933</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.219881492755448</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.245099380408476</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.331604694941575</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.954445634424516</v>
+        <v>31.0372766667378</v>
       </c>
       <c r="N21">
-        <v>0.8315802352582295</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.735588259119538</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.195295964779234</v>
+        <v>0.489041158069071</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.672499783277686</v>
+        <v>0.1090595909720875</v>
       </c>
       <c r="E22">
-        <v>1.306901762655826</v>
+        <v>6.864379058698404</v>
       </c>
       <c r="F22">
-        <v>8.13267598688816</v>
+        <v>0.7619026866181642</v>
       </c>
       <c r="G22">
-        <v>0.0006842555541231306</v>
+        <v>0.7132326481670788</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2522341521397209</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.364115707684704</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.646041646260187</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2.130242715916907</v>
+        <v>34.22282646261698</v>
       </c>
       <c r="N22">
-        <v>0.7694033817432739</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.999445242274305</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.974976696239594</v>
+        <v>0.4695041223584298</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.58665581001884</v>
+        <v>0.1047986701533219</v>
       </c>
       <c r="E23">
-        <v>1.242371451298609</v>
+        <v>6.450541531129488</v>
       </c>
       <c r="F23">
-        <v>7.783083975370005</v>
+        <v>0.7135314831524155</v>
       </c>
       <c r="G23">
-        <v>0.0006930790051026464</v>
+        <v>0.6625610441268037</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2343503382486034</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.299752132237614</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.476043684919262</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.03529429628982</v>
+        <v>32.48794529143851</v>
       </c>
       <c r="N23">
-        <v>0.8022759826359476</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.854263167132444</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.187391923489201</v>
+        <v>0.3978940612120851</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.287027837077176</v>
+        <v>0.0891894462686551</v>
       </c>
       <c r="E24">
-        <v>1.015398222718105</v>
+        <v>5.098143734772378</v>
       </c>
       <c r="F24">
-        <v>6.573037340933439</v>
+        <v>0.553343415897082</v>
       </c>
       <c r="G24">
-        <v>0.0007255126239372957</v>
+        <v>0.497578830747841</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1781917347560977</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.072178407107515</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.874426479678306</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.697538734336959</v>
+        <v>26.54990813207058</v>
       </c>
       <c r="N24">
-        <v>0.9331664788058305</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.385776155215694</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.408440741808874</v>
+        <v>0.3240533166281381</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.000592779545286</v>
+        <v>0.07294553468047837</v>
       </c>
       <c r="E25">
-        <v>0.7955158267124602</v>
+        <v>3.899295818236567</v>
       </c>
       <c r="F25">
-        <v>5.438810449964109</v>
+        <v>0.4117978345029911</v>
       </c>
       <c r="G25">
-        <v>0.0007594603168711516</v>
+        <v>0.3555477621666085</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1334522786800107</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8497528891294905</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.287461027589359</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.365678639505461</v>
+        <v>20.92636563372622</v>
       </c>
       <c r="N25">
-        <v>1.085584872574891</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.989803298069404</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2715290327915767</v>
+        <v>0.1424851084621821</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0612065159374211</v>
+        <v>0.02162275288967663</v>
       </c>
       <c r="E2">
-        <v>3.132164306745324</v>
+        <v>0.9706460231672907</v>
       </c>
       <c r="F2">
-        <v>0.3238366704536091</v>
+        <v>0.2074658241646503</v>
       </c>
       <c r="G2">
-        <v>0.2692272067826309</v>
+        <v>0.0959412586952908</v>
       </c>
       <c r="H2">
-        <v>0.1088912754987419</v>
+        <v>0.2308347742849293</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.13873601777033</v>
+        <v>5.463493702426234</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7544996170823453</v>
+        <v>0.5408165625539283</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2367236730539588</v>
+        <v>0.1329187634610349</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05331014177607329</v>
+        <v>0.0190173867394634</v>
       </c>
       <c r="E3">
-        <v>2.654472787306858</v>
+        <v>0.8550687529744039</v>
       </c>
       <c r="F3">
-        <v>0.2710883651249318</v>
+        <v>0.2048379074659934</v>
       </c>
       <c r="G3">
-        <v>0.2182628169198821</v>
+        <v>0.09301119831525284</v>
       </c>
       <c r="H3">
-        <v>0.0958639409224844</v>
+        <v>0.2355292435101219</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.70023548877029</v>
+        <v>4.771238460786236</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6185730928673223</v>
+        <v>0.5440645604220151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2156530864425577</v>
+        <v>0.1271150842600832</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04847421157796816</v>
+        <v>0.01740928393535768</v>
       </c>
       <c r="E4">
-        <v>2.375471048651136</v>
+        <v>0.7845186426024782</v>
       </c>
       <c r="F4">
-        <v>0.2413030635803466</v>
+        <v>0.2036525758176424</v>
       </c>
       <c r="G4">
-        <v>0.1897770821964286</v>
+        <v>0.0915470519350734</v>
       </c>
       <c r="H4">
-        <v>0.08926659200402298</v>
+        <v>0.2387424300278767</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.24576498236792</v>
+        <v>4.344752309698066</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5439909503606088</v>
+        <v>0.5474501212801073</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2071309065903932</v>
+        <v>0.1247677545229493</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0465048115117952</v>
+        <v>0.01675193829008492</v>
       </c>
       <c r="E5">
-        <v>2.264623113113387</v>
+        <v>0.7558687716256713</v>
       </c>
       <c r="F5">
-        <v>0.2297237747109904</v>
+        <v>0.2032753348683798</v>
       </c>
       <c r="G5">
-        <v>0.1787638810917755</v>
+        <v>0.09103240660711265</v>
       </c>
       <c r="H5">
-        <v>0.08688370083201846</v>
+        <v>0.2401340853268792</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.66141157287544</v>
+        <v>4.170585153446837</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5154972347427531</v>
+        <v>0.5491729930788409</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2057193879185633</v>
+        <v>0.1243790550380339</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0461778253639693</v>
+        <v>0.01664266633542155</v>
       </c>
       <c r="E6">
-        <v>2.246369905392172</v>
+        <v>0.7511173939407882</v>
       </c>
       <c r="F6">
-        <v>0.2278322490445248</v>
+        <v>0.2032190286948534</v>
       </c>
       <c r="G6">
-        <v>0.1769681796455131</v>
+        <v>0.0909518385611392</v>
       </c>
       <c r="H6">
-        <v>0.0865052497170069</v>
+        <v>0.24037010985856</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.56482334805654</v>
+        <v>4.14164222545989</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5108718415217197</v>
+        <v>0.5494796115546592</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2155379068426413</v>
+        <v>0.1270833554913935</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04844764851169003</v>
+        <v>0.01740042685526788</v>
       </c>
       <c r="E7">
-        <v>2.373965461415352</v>
+        <v>0.7841318615622583</v>
       </c>
       <c r="F7">
-        <v>0.2411447559093887</v>
+        <v>0.2036470623590745</v>
       </c>
       <c r="G7">
-        <v>0.1896262786623808</v>
+        <v>0.0915397821248547</v>
       </c>
       <c r="H7">
-        <v>0.08923327470902365</v>
+        <v>0.2387608665370777</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.23785319093048</v>
+        <v>4.342404941363725</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5435993859947956</v>
+        <v>0.5474719755392101</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2594585974070753</v>
+        <v>0.1391721336851361</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05847998665721121</v>
+        <v>0.02072621232030514</v>
       </c>
       <c r="E8">
-        <v>2.963982414797584</v>
+        <v>0.9307060389488129</v>
       </c>
       <c r="F8">
-        <v>0.3050460245521265</v>
+        <v>0.2064697025229165</v>
       </c>
       <c r="G8">
-        <v>0.250999300511431</v>
+        <v>0.09486012558110701</v>
       </c>
       <c r="H8">
-        <v>0.1040778263176136</v>
+        <v>0.2323842252968547</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.28745331037382</v>
+        <v>5.225096595408729</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7055706365324141</v>
+        <v>0.5416437217200496</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3485826620505179</v>
+        <v>0.1634320469635782</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07836918907066348</v>
+        <v>0.02717833388996382</v>
       </c>
       <c r="E9">
-        <v>4.279995771775418</v>
+        <v>1.221667686668354</v>
       </c>
       <c r="F9">
-        <v>0.456411236646133</v>
+        <v>0.2154882714520951</v>
       </c>
       <c r="G9">
-        <v>0.3999156439187743</v>
+        <v>0.1041289242423247</v>
       </c>
       <c r="H9">
-        <v>0.1469547262368991</v>
+        <v>0.2225452438570699</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.75018419951903</v>
+        <v>6.945215016769282</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.112534509225981</v>
+        <v>0.5415525096821767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.416995536202009</v>
+        <v>0.181592800107822</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09335947060674243</v>
+        <v>0.03187268654438924</v>
       </c>
       <c r="E10">
-        <v>5.437320556000799</v>
+        <v>1.437977172198828</v>
       </c>
       <c r="F10">
-        <v>0.593671922203491</v>
+        <v>0.2243572009104469</v>
       </c>
       <c r="G10">
-        <v>0.5387013506796023</v>
+        <v>0.1127591527459657</v>
       </c>
       <c r="H10">
-        <v>0.1918457684543853</v>
+        <v>0.2169982298749176</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.07856256781366</v>
+        <v>8.203440162718323</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.501848817066019</v>
+        <v>0.5488119871852177</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4491164116430468</v>
+        <v>0.1899278958854751</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1003580316197912</v>
+        <v>0.03399762527699579</v>
       </c>
       <c r="E11">
-        <v>6.041507998502368</v>
+        <v>1.53702969910816</v>
       </c>
       <c r="F11">
-        <v>0.6653311442634475</v>
+        <v>0.2289049647439683</v>
       </c>
       <c r="G11">
-        <v>0.6124598063151723</v>
+        <v>0.117110952040349</v>
       </c>
       <c r="H11">
-        <v>0.2169329430169284</v>
+        <v>0.2148522142552167</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>30.7358541974877</v>
+        <v>8.774913760924619</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.711254983973873</v>
+        <v>0.5537957005988972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4614686576578606</v>
+        <v>0.193094748267427</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1030481185572114</v>
+        <v>0.0348007081958599</v>
       </c>
       <c r="E12">
-        <v>6.286722512872927</v>
+        <v>1.574640335712957</v>
       </c>
       <c r="F12">
-        <v>0.6942675645443899</v>
+        <v>0.2307030228395419</v>
       </c>
       <c r="G12">
-        <v>0.6424904836238596</v>
+        <v>0.1188226151508758</v>
       </c>
       <c r="H12">
-        <v>0.2273394864001688</v>
+        <v>0.2140948622500218</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>31.79071995859795</v>
+        <v>8.991209734362428</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.796905998049397</v>
+        <v>0.5559321587641932</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4587990525322994</v>
+        <v>0.1924122424264567</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1024666709727953</v>
+        <v>0.03462782148393728</v>
       </c>
       <c r="E13">
-        <v>6.233063958918507</v>
+        <v>1.566535562887566</v>
       </c>
       <c r="F13">
-        <v>0.6879453378097367</v>
+        <v>0.2303123684148503</v>
       </c>
       <c r="G13">
-        <v>0.6359171315235841</v>
+        <v>0.1184511033738858</v>
       </c>
       <c r="H13">
-        <v>0.2250528787994881</v>
+        <v>0.2142554955739087</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>31.56104385965023</v>
+        <v>8.944631006893474</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.778140232543052</v>
+        <v>0.5554608297309471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4501285273446456</v>
+        <v>0.1901882239814512</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1005784372342475</v>
+        <v>0.03406372754488984</v>
       </c>
       <c r="E14">
-        <v>6.061312003502081</v>
+        <v>1.540121865816076</v>
       </c>
       <c r="F14">
-        <v>0.667672109534962</v>
+        <v>0.2290513583419198</v>
       </c>
       <c r="G14">
-        <v>0.6148840478911382</v>
+        <v>0.1172504799336025</v>
       </c>
       <c r="H14">
-        <v>0.217769155745458</v>
+        <v>0.2147887922355523</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>30.82154901563212</v>
+        <v>8.7927106124651</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.718161345995782</v>
+        <v>0.5539664302161214</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4448438255860481</v>
+        <v>0.188827318376255</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09942758829550513</v>
+        <v>0.03371799528760278</v>
       </c>
       <c r="E15">
-        <v>5.95845329514944</v>
+        <v>1.523956186395878</v>
       </c>
       <c r="F15">
-        <v>0.655506687078848</v>
+        <v>0.2282889032950877</v>
       </c>
       <c r="G15">
-        <v>0.6022959553134086</v>
+        <v>0.1165234376194917</v>
       </c>
       <c r="H15">
-        <v>0.2134346794337745</v>
+        <v>0.2151226841300371</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>30.37549976723898</v>
+        <v>8.699641482992831</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.682314979103325</v>
+        <v>0.5530837479842319</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4149199237152459</v>
+        <v>0.1810495591056309</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09290674592403292</v>
+        <v>0.03173359863458103</v>
       </c>
       <c r="E16">
-        <v>5.399786854716069</v>
+        <v>1.431517634398858</v>
       </c>
       <c r="F16">
-        <v>0.5892101256046303</v>
+        <v>0.2240705018477556</v>
       </c>
       <c r="G16">
-        <v>0.5341378611455667</v>
+        <v>0.1124835342275929</v>
       </c>
       <c r="H16">
-        <v>0.1903178961047018</v>
+        <v>0.2171461585016914</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>27.91071863295599</v>
+        <v>8.16607663579066</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.488942148941589</v>
+        <v>0.5485207581914153</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3968454200058034</v>
+        <v>0.1762969799441834</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08896024847036443</v>
+        <v>0.03051348450337343</v>
       </c>
       <c r="E17">
-        <v>5.079915152739176</v>
+        <v>1.374981990498583</v>
       </c>
       <c r="F17">
-        <v>0.5511762309356243</v>
+        <v>0.2216156002977172</v>
       </c>
       <c r="G17">
-        <v>0.4953769885981956</v>
+        <v>0.1101160217309882</v>
       </c>
       <c r="H17">
-        <v>0.1774681691793916</v>
+        <v>0.2184848756201347</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26.46699005031365</v>
+        <v>7.838535522277766</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.379576527555116</v>
+        <v>0.5461574217926284</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3865400771367149</v>
+        <v>0.1735703603413299</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08670607643082917</v>
+        <v>0.02981071839761995</v>
       </c>
       <c r="E18">
-        <v>4.902825967950065</v>
+        <v>1.342525072306984</v>
       </c>
       <c r="F18">
-        <v>0.5301306451208703</v>
+        <v>0.2202517869099907</v>
       </c>
       <c r="G18">
-        <v>0.4740377742785427</v>
+        <v>0.1087942246885518</v>
       </c>
       <c r="H18">
-        <v>0.1704980572651777</v>
+        <v>0.2192903256263037</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.65736316602755</v>
+        <v>7.650056512462072</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.319578855792315</v>
+        <v>0.5449558975923594</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3830653305711138</v>
+        <v>0.1726483674543715</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08594524001497206</v>
+        <v>0.02957260620625135</v>
       </c>
       <c r="E19">
-        <v>4.843931512256489</v>
+        <v>1.331545947629905</v>
       </c>
       <c r="F19">
-        <v>0.5231363807602705</v>
+        <v>0.2197982342185725</v>
       </c>
       <c r="G19">
-        <v>0.4669632521535902</v>
+        <v>0.1083534701274118</v>
       </c>
       <c r="H19">
-        <v>0.1682047945585623</v>
+        <v>0.2195690952754177</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.38645774026571</v>
+        <v>7.586225391474215</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.299723672333045</v>
+        <v>0.5445759593917785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3987598309588947</v>
+        <v>0.1768021825022998</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08937865095388275</v>
+        <v>0.03064347057387806</v>
       </c>
       <c r="E20">
-        <v>5.113223134279593</v>
+        <v>1.380993950000317</v>
       </c>
       <c r="F20">
-        <v>0.5551362761844061</v>
+        <v>0.2218719269620451</v>
       </c>
       <c r="G20">
-        <v>0.4994009833482238</v>
+        <v>0.1103638965609406</v>
       </c>
       <c r="H20">
-        <v>0.1787911289084434</v>
+        <v>0.2183386899448436</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26.61844212344198</v>
+        <v>7.873411593743072</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.390907932508725</v>
+        <v>0.54639261710048</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4526696913603274</v>
+        <v>0.1908411867247253</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1011318215208519</v>
+        <v>0.03422945916375397</v>
       </c>
       <c r="E21">
-        <v>6.111257206137253</v>
+        <v>1.547877386427274</v>
       </c>
       <c r="F21">
-        <v>0.6735730183637898</v>
+        <v>0.2294196701795244</v>
       </c>
       <c r="G21">
-        <v>0.6209989771041933</v>
+        <v>0.1176013824690614</v>
       </c>
       <c r="H21">
-        <v>0.219881492755448</v>
+        <v>0.2146306410099612</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>31.0372766667378</v>
+        <v>8.837336088608197</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.735588259119538</v>
+        <v>0.5543985475171098</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.489041158069071</v>
+        <v>0.2000778550140012</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1090595909720875</v>
+        <v>0.03656384036887061</v>
       </c>
       <c r="E22">
-        <v>6.864379058698404</v>
+        <v>1.657541594577197</v>
       </c>
       <c r="F22">
-        <v>0.7619026866181642</v>
+        <v>0.2347960681961609</v>
       </c>
       <c r="G22">
-        <v>0.7132326481670788</v>
+        <v>0.1227041526604609</v>
       </c>
       <c r="H22">
-        <v>0.2522341521397209</v>
+        <v>0.212530021995974</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>34.22282646261698</v>
+        <v>9.466694220692375</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.999445242274305</v>
+        <v>0.5610871435861213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4695041223584298</v>
+        <v>0.1951424749966577</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1047986701533219</v>
+        <v>0.03531880720652225</v>
       </c>
       <c r="E23">
-        <v>6.450541531129488</v>
+        <v>1.598954447615228</v>
       </c>
       <c r="F23">
-        <v>0.7135314831524155</v>
+        <v>0.2318852967217069</v>
       </c>
       <c r="G23">
-        <v>0.6625610441268037</v>
+        <v>0.1199457780204511</v>
       </c>
       <c r="H23">
-        <v>0.2343503382486034</v>
+        <v>0.2136212800547099</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>32.48794529143851</v>
+        <v>9.130843465882094</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.854263167132444</v>
+        <v>0.5573815766325367</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3978940612120851</v>
+        <v>0.1765737626628692</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0891894462686551</v>
+        <v>0.03058470793408219</v>
       </c>
       <c r="E24">
-        <v>5.098143734772378</v>
+        <v>1.378275799862138</v>
       </c>
       <c r="F24">
-        <v>0.553343415897082</v>
+        <v>0.2217558937534889</v>
       </c>
       <c r="G24">
-        <v>0.497578830747841</v>
+        <v>0.1102517100737117</v>
       </c>
       <c r="H24">
-        <v>0.1781917347560977</v>
+        <v>0.2184046690465919</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26.54990813207058</v>
+        <v>7.857644656803245</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.385776155215694</v>
+        <v>0.5462857962556029</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3240533166281381</v>
+        <v>0.1568098952690775</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07294553468047837</v>
+        <v>0.02544070513221186</v>
       </c>
       <c r="E25">
-        <v>3.899295818236567</v>
+        <v>1.142538945851896</v>
       </c>
       <c r="F25">
-        <v>0.4117978345029911</v>
+        <v>0.2126633081431208</v>
       </c>
       <c r="G25">
-        <v>0.3555477621666085</v>
+        <v>0.1013119343309796</v>
       </c>
       <c r="H25">
-        <v>0.1334522786800107</v>
+        <v>0.224915749393034</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.92636563372622</v>
+        <v>6.480935901360112</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.989803298069404</v>
+        <v>0.5403207734865418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424851084621821</v>
+        <v>0.2715290327921025</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02162275288967663</v>
+        <v>0.06120651593756321</v>
       </c>
       <c r="E2">
-        <v>0.9706460231672907</v>
+        <v>3.132164306745352</v>
       </c>
       <c r="F2">
-        <v>0.2074658241646503</v>
+        <v>0.3238366704536375</v>
       </c>
       <c r="G2">
-        <v>0.0959412586952908</v>
+        <v>0.2692272067826877</v>
       </c>
       <c r="H2">
-        <v>0.2308347742849293</v>
+        <v>0.1088912754987419</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.463493702426234</v>
+        <v>17.13873601777038</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5408165625539283</v>
+        <v>0.754499617082331</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329187634610349</v>
+        <v>0.2367236730546978</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0190173867394634</v>
+        <v>0.05331014177606619</v>
       </c>
       <c r="E3">
-        <v>0.8550687529744039</v>
+        <v>2.654472787306688</v>
       </c>
       <c r="F3">
-        <v>0.2048379074659934</v>
+        <v>0.2710883651249461</v>
       </c>
       <c r="G3">
-        <v>0.09301119831525284</v>
+        <v>0.2182628169198964</v>
       </c>
       <c r="H3">
-        <v>0.2355292435101219</v>
+        <v>0.0958639409224844</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.771238460786236</v>
+        <v>14.70023548877001</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5440645604220151</v>
+        <v>0.6185730928672371</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271150842600832</v>
+        <v>0.2156530864425434</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01740928393535768</v>
+        <v>0.04847421157789711</v>
       </c>
       <c r="E4">
-        <v>0.7845186426024782</v>
+        <v>2.375471048651136</v>
       </c>
       <c r="F4">
-        <v>0.2036525758176424</v>
+        <v>0.2413030635803466</v>
       </c>
       <c r="G4">
-        <v>0.0915470519350734</v>
+        <v>0.1897770821964926</v>
       </c>
       <c r="H4">
-        <v>0.2387424300278767</v>
+        <v>0.08926659200412956</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.344752309698066</v>
+        <v>13.24576498236789</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5474501212801073</v>
+        <v>0.5439909503605662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247677545229493</v>
+        <v>0.2071309065914591</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01675193829008492</v>
+        <v>0.04650481151201546</v>
       </c>
       <c r="E5">
-        <v>0.7558687716256713</v>
+        <v>2.26462311311343</v>
       </c>
       <c r="F5">
-        <v>0.2032753348683798</v>
+        <v>0.2297237747109904</v>
       </c>
       <c r="G5">
-        <v>0.09103240660711265</v>
+        <v>0.1787638810917898</v>
       </c>
       <c r="H5">
-        <v>0.2401340853268792</v>
+        <v>0.08688370083201846</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.170585153446837</v>
+        <v>12.66141157287535</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5491729930788409</v>
+        <v>0.5154972347427673</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243790550380339</v>
+        <v>0.2057193879183359</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01664266633542155</v>
+        <v>0.04617782536377746</v>
       </c>
       <c r="E6">
-        <v>0.7511173939407882</v>
+        <v>2.246369905392214</v>
       </c>
       <c r="F6">
-        <v>0.2032190286948534</v>
+        <v>0.2278322490445177</v>
       </c>
       <c r="G6">
-        <v>0.0909518385611392</v>
+        <v>0.17696817964557</v>
       </c>
       <c r="H6">
-        <v>0.24037010985856</v>
+        <v>0.0865052497169998</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.14164222545989</v>
+        <v>12.56482334805668</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5494796115546592</v>
+        <v>0.5108718415216771</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270833554913935</v>
+        <v>0.2155379068424566</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01740042685526788</v>
+        <v>0.0484476485117824</v>
       </c>
       <c r="E7">
-        <v>0.7841318615622583</v>
+        <v>2.373965461415338</v>
       </c>
       <c r="F7">
-        <v>0.2036470623590745</v>
+        <v>0.2411447559093887</v>
       </c>
       <c r="G7">
-        <v>0.0915397821248547</v>
+        <v>0.1896262786623808</v>
       </c>
       <c r="H7">
-        <v>0.2387608665370777</v>
+        <v>0.08923327470890996</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.342404941363725</v>
+        <v>13.23785319093042</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5474719755392101</v>
+        <v>0.5435993859948525</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391721336851361</v>
+        <v>0.2594585974076722</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02072621232030514</v>
+        <v>0.05847998665733201</v>
       </c>
       <c r="E8">
-        <v>0.9307060389488129</v>
+        <v>2.963982414797641</v>
       </c>
       <c r="F8">
-        <v>0.2064697025229165</v>
+        <v>0.3050460245521194</v>
       </c>
       <c r="G8">
-        <v>0.09486012558110701</v>
+        <v>0.2509993005113742</v>
       </c>
       <c r="H8">
-        <v>0.2323842252968547</v>
+        <v>0.1040778263177273</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.225096595408729</v>
+        <v>16.28745331037405</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5416437217200496</v>
+        <v>0.7055706365323999</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634320469635782</v>
+        <v>0.3485826620497647</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02717833388996382</v>
+        <v>0.07836918907084822</v>
       </c>
       <c r="E9">
-        <v>1.221667686668354</v>
+        <v>4.279995771775418</v>
       </c>
       <c r="F9">
-        <v>0.2154882714520951</v>
+        <v>0.4564112366461401</v>
       </c>
       <c r="G9">
-        <v>0.1041289242423247</v>
+        <v>0.399915643918817</v>
       </c>
       <c r="H9">
-        <v>0.2225452438570699</v>
+        <v>0.1469547262368991</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.945215016769282</v>
+        <v>22.75018419951903</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5415525096821767</v>
+        <v>1.112534509225924</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.181592800107822</v>
+        <v>0.4169955362012416</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03187268654438924</v>
+        <v>0.09335947060684902</v>
       </c>
       <c r="E10">
-        <v>1.437977172198828</v>
+        <v>5.437320556000856</v>
       </c>
       <c r="F10">
-        <v>0.2243572009104469</v>
+        <v>0.5936719222034768</v>
       </c>
       <c r="G10">
-        <v>0.1127591527459657</v>
+        <v>0.5387013506796734</v>
       </c>
       <c r="H10">
-        <v>0.2169982298749176</v>
+        <v>0.191845768454499</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.203440162718323</v>
+        <v>28.07856256781389</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5488119871852177</v>
+        <v>1.501848817065962</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899278958854751</v>
+        <v>0.449116411643061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03399762527699579</v>
+        <v>0.1003580316197912</v>
       </c>
       <c r="E11">
-        <v>1.53702969910816</v>
+        <v>6.041507998502453</v>
       </c>
       <c r="F11">
-        <v>0.2289049647439683</v>
+        <v>0.6653311442634333</v>
       </c>
       <c r="G11">
-        <v>0.117110952040349</v>
+        <v>0.6124598063151865</v>
       </c>
       <c r="H11">
-        <v>0.2148522142552167</v>
+        <v>0.2169329430169427</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.774913760924619</v>
+        <v>30.73585419748798</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5537957005988972</v>
+        <v>1.711254983973845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.193094748267427</v>
+        <v>0.4614686576582159</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0348007081958599</v>
+        <v>0.1030481185572398</v>
       </c>
       <c r="E12">
-        <v>1.574640335712957</v>
+        <v>6.286722512872927</v>
       </c>
       <c r="F12">
-        <v>0.2307030228395419</v>
+        <v>0.6942675645443899</v>
       </c>
       <c r="G12">
-        <v>0.1188226151508758</v>
+        <v>0.6424904836238596</v>
       </c>
       <c r="H12">
-        <v>0.2140948622500218</v>
+        <v>0.2273394864002967</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.991209734362428</v>
+        <v>31.790719958598</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5559321587641932</v>
+        <v>1.796905998049311</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1924122424264567</v>
+        <v>0.4587990525328962</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03462782148393728</v>
+        <v>0.1024666709726603</v>
       </c>
       <c r="E13">
-        <v>1.566535562887566</v>
+        <v>6.233063958918649</v>
       </c>
       <c r="F13">
-        <v>0.2303123684148503</v>
+        <v>0.6879453378097438</v>
       </c>
       <c r="G13">
-        <v>0.1184511033738858</v>
+        <v>0.6359171315235983</v>
       </c>
       <c r="H13">
-        <v>0.2142554955739087</v>
+        <v>0.2250528787993744</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.944631006893474</v>
+        <v>31.56104385965034</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5554608297309471</v>
+        <v>1.778140232543109</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1901882239814512</v>
+        <v>0.4501285273453703</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03406372754488984</v>
+        <v>0.1005784372341481</v>
       </c>
       <c r="E14">
-        <v>1.540121865816076</v>
+        <v>6.061312003502195</v>
       </c>
       <c r="F14">
-        <v>0.2290513583419198</v>
+        <v>0.6676721095349762</v>
       </c>
       <c r="G14">
-        <v>0.1172504799336025</v>
+        <v>0.6148840478912092</v>
       </c>
       <c r="H14">
-        <v>0.2147887922355523</v>
+        <v>0.217769155745458</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.7927106124651</v>
+        <v>30.8215490156324</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5539664302161214</v>
+        <v>1.718161345995725</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.188827318376255</v>
+        <v>0.4448438255857781</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03371799528760278</v>
+        <v>0.09942758829551224</v>
       </c>
       <c r="E15">
-        <v>1.523956186395878</v>
+        <v>5.958453295149326</v>
       </c>
       <c r="F15">
-        <v>0.2282889032950877</v>
+        <v>0.6555066870788337</v>
       </c>
       <c r="G15">
-        <v>0.1165234376194917</v>
+        <v>0.6022959553133234</v>
       </c>
       <c r="H15">
-        <v>0.2151226841300371</v>
+        <v>0.2134346794336608</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.699641482992831</v>
+        <v>30.37549976723886</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5530837479842319</v>
+        <v>1.68231497910341</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810495591056309</v>
+        <v>0.4149199237147911</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03173359863458103</v>
+        <v>0.09290674592395476</v>
       </c>
       <c r="E16">
-        <v>1.431517634398858</v>
+        <v>5.399786854716041</v>
       </c>
       <c r="F16">
-        <v>0.2240705018477556</v>
+        <v>0.5892101256046232</v>
       </c>
       <c r="G16">
-        <v>0.1124835342275929</v>
+        <v>0.5341378611455667</v>
       </c>
       <c r="H16">
-        <v>0.2171461585016914</v>
+        <v>0.1903178961047018</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.16607663579066</v>
+        <v>27.91071863295576</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5485207581914153</v>
+        <v>1.488942148941589</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1762969799441834</v>
+        <v>0.3968454200051212</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03051348450337343</v>
+        <v>0.08896024847054917</v>
       </c>
       <c r="E17">
-        <v>1.374981990498583</v>
+        <v>5.079915152739233</v>
       </c>
       <c r="F17">
-        <v>0.2216156002977172</v>
+        <v>0.5511762309356243</v>
       </c>
       <c r="G17">
-        <v>0.1101160217309882</v>
+        <v>0.4953769885981529</v>
       </c>
       <c r="H17">
-        <v>0.2184848756201347</v>
+        <v>0.1774681691795053</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.838535522277766</v>
+        <v>26.46699005031394</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5461574217926284</v>
+        <v>1.379576527555116</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735703603413299</v>
+        <v>0.386540077137326</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02981071839761995</v>
+        <v>0.08670607643083628</v>
       </c>
       <c r="E18">
-        <v>1.342525072306984</v>
+        <v>4.902825967950065</v>
       </c>
       <c r="F18">
-        <v>0.2202517869099907</v>
+        <v>0.5301306451208703</v>
       </c>
       <c r="G18">
-        <v>0.1087942246885518</v>
+        <v>0.4740377742785427</v>
       </c>
       <c r="H18">
-        <v>0.2192903256263037</v>
+        <v>0.1704980572651777</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.650056512462072</v>
+        <v>25.65736316602755</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5449558975923594</v>
+        <v>1.319578855792287</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726483674543715</v>
+        <v>0.3830653305716112</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02957260620625135</v>
+        <v>0.08594524001485837</v>
       </c>
       <c r="E19">
-        <v>1.331545947629905</v>
+        <v>4.843931512256518</v>
       </c>
       <c r="F19">
-        <v>0.2197982342185725</v>
+        <v>0.5231363807602776</v>
       </c>
       <c r="G19">
-        <v>0.1083534701274118</v>
+        <v>0.466963252153576</v>
       </c>
       <c r="H19">
-        <v>0.2195690952754177</v>
+        <v>0.1682047945585623</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.586225391474215</v>
+        <v>25.38645774026571</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5445759593917785</v>
+        <v>1.299723672333045</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768021825022998</v>
+        <v>0.398759830958042</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03064347057387806</v>
+        <v>0.08937865095391828</v>
       </c>
       <c r="E20">
-        <v>1.380993950000317</v>
+        <v>5.113223134279593</v>
       </c>
       <c r="F20">
-        <v>0.2218719269620451</v>
+        <v>0.5551362761843919</v>
       </c>
       <c r="G20">
-        <v>0.1103638965609406</v>
+        <v>0.4994009833482664</v>
       </c>
       <c r="H20">
-        <v>0.2183386899448436</v>
+        <v>0.1787911289084576</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.873411593743072</v>
+        <v>26.61844212344175</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.54639261710048</v>
+        <v>1.390907932508696</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908411867247253</v>
+        <v>0.4526696913607964</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03422945916375397</v>
+        <v>0.1011318215209442</v>
       </c>
       <c r="E21">
-        <v>1.547877386427274</v>
+        <v>6.111257206137196</v>
       </c>
       <c r="F21">
-        <v>0.2294196701795244</v>
+        <v>0.6735730183637898</v>
       </c>
       <c r="G21">
-        <v>0.1176013824690614</v>
+        <v>0.6209989771042501</v>
       </c>
       <c r="H21">
-        <v>0.2146306410099612</v>
+        <v>0.2198814927553201</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.837336088608197</v>
+        <v>31.0372766667374</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5543985475171098</v>
+        <v>1.735588259119595</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2000778550140012</v>
+        <v>0.489041158068332</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03656384036887061</v>
+        <v>0.1090595909720946</v>
       </c>
       <c r="E22">
-        <v>1.657541594577197</v>
+        <v>6.864379058698489</v>
       </c>
       <c r="F22">
-        <v>0.2347960681961609</v>
+        <v>0.7619026866181784</v>
       </c>
       <c r="G22">
-        <v>0.1227041526604609</v>
+        <v>0.713232648167093</v>
       </c>
       <c r="H22">
-        <v>0.212530021995974</v>
+        <v>0.2522341521396072</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.466694220692375</v>
+        <v>34.22282646261721</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5610871435861213</v>
+        <v>1.99944524227439</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951424749966577</v>
+        <v>0.4695041223583019</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03531880720652225</v>
+        <v>0.1047986701533148</v>
       </c>
       <c r="E23">
-        <v>1.598954447615228</v>
+        <v>6.450541531129488</v>
       </c>
       <c r="F23">
-        <v>0.2318852967217069</v>
+        <v>0.7135314831524227</v>
       </c>
       <c r="G23">
-        <v>0.1199457780204511</v>
+        <v>0.6625610441268037</v>
       </c>
       <c r="H23">
-        <v>0.2136212800547099</v>
+        <v>0.2343503382486034</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.130843465882094</v>
+        <v>32.48794529143839</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5573815766325367</v>
+        <v>1.854263167132444</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765737626628692</v>
+        <v>0.3978940612128383</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03058470793408219</v>
+        <v>0.08918944626856273</v>
       </c>
       <c r="E24">
-        <v>1.378275799862138</v>
+        <v>5.098143734772435</v>
       </c>
       <c r="F24">
-        <v>0.2217558937534889</v>
+        <v>0.553343415897082</v>
       </c>
       <c r="G24">
-        <v>0.1102517100737117</v>
+        <v>0.4975788307478552</v>
       </c>
       <c r="H24">
-        <v>0.2184046690465919</v>
+        <v>0.1781917347560977</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.857644656803245</v>
+        <v>26.54990813207104</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5462857962556029</v>
+        <v>1.385776155215638</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1568098952690775</v>
+        <v>0.3240533166277828</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02544070513221186</v>
+        <v>0.07294553468054943</v>
       </c>
       <c r="E25">
-        <v>1.142538945851896</v>
+        <v>3.899295818236453</v>
       </c>
       <c r="F25">
-        <v>0.2126633081431208</v>
+        <v>0.4117978345029911</v>
       </c>
       <c r="G25">
-        <v>0.1013119343309796</v>
+        <v>0.3555477621665375</v>
       </c>
       <c r="H25">
-        <v>0.224915749393034</v>
+        <v>0.1334522786798971</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.480935901360112</v>
+        <v>20.92636563372582</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5403207734865418</v>
+        <v>0.9898032980693756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2715290327921025</v>
+        <v>1.642116223893908</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06120651593756321</v>
+        <v>0.1927770856393067</v>
       </c>
       <c r="E2">
-        <v>3.132164306745352</v>
+        <v>0.281097105523088</v>
       </c>
       <c r="F2">
-        <v>0.3238366704536375</v>
+        <v>1.411206881848273</v>
       </c>
       <c r="G2">
-        <v>0.2692272067826877</v>
+        <v>1.551958559459194</v>
       </c>
       <c r="H2">
-        <v>0.1088912754987419</v>
+        <v>0.001329389710208351</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01310769074328944</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8841010570274648</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4128526508121375</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4233070202477336</v>
       </c>
       <c r="M2">
-        <v>17.13873601777038</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.039372964288447</v>
       </c>
       <c r="O2">
-        <v>0.754499617082331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6400677428074033</v>
+      </c>
+      <c r="P2">
+        <v>1.117039773500018</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2367236730546978</v>
+        <v>1.438240077795939</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05331014177606619</v>
+        <v>0.1723921778242357</v>
       </c>
       <c r="E3">
-        <v>2.654472787306688</v>
+        <v>0.2507132112519912</v>
       </c>
       <c r="F3">
-        <v>0.2710883651249461</v>
+        <v>1.29275916725652</v>
       </c>
       <c r="G3">
-        <v>0.2182628169198964</v>
+        <v>1.384512669329155</v>
       </c>
       <c r="H3">
-        <v>0.0958639409224844</v>
+        <v>0.002963015637203248</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01590418439412078</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8110129272020004</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4226530809320739</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3771092084073047</v>
       </c>
       <c r="M3">
-        <v>14.70023548877001</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9058126744381241</v>
       </c>
       <c r="O3">
-        <v>0.6185730928672371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5592491902549099</v>
+      </c>
+      <c r="P3">
+        <v>1.125213518347671</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2156530864425434</v>
+        <v>1.31248120244382</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04847421157789711</v>
+        <v>0.1600048942806609</v>
       </c>
       <c r="E4">
-        <v>2.375471048651136</v>
+        <v>0.2322302025057397</v>
       </c>
       <c r="F4">
-        <v>0.2413030635803466</v>
+        <v>1.221521986696501</v>
       </c>
       <c r="G4">
-        <v>0.1897770821964926</v>
+        <v>1.28347153622488</v>
       </c>
       <c r="H4">
-        <v>0.08926659200412956</v>
+        <v>0.004329132304398908</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01784743139144052</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7671501780322671</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4289429976366996</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3489956791398043</v>
       </c>
       <c r="M4">
-        <v>13.24576498236789</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.8244840783410154</v>
       </c>
       <c r="O4">
-        <v>0.5439909503605662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5096993027050516</v>
+      </c>
+      <c r="P4">
+        <v>1.131018600823843</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2071309065914591</v>
+        <v>1.259668025723897</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04650481151201546</v>
+        <v>0.1550358240183201</v>
       </c>
       <c r="E5">
-        <v>2.26462311311343</v>
+        <v>0.2248930977162793</v>
       </c>
       <c r="F5">
-        <v>0.2297237747109904</v>
+        <v>1.192013039127787</v>
       </c>
       <c r="G5">
-        <v>0.1787638810917898</v>
+        <v>1.241883646928756</v>
       </c>
       <c r="H5">
-        <v>0.08688370083201846</v>
+        <v>0.004974175587944274</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01878623750641717</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7490981238547079</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4311807788529585</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3378931367363407</v>
       </c>
       <c r="M5">
-        <v>12.66141157287535</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7924298531786178</v>
       </c>
       <c r="O5">
-        <v>0.5154972347427673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4895144754262333</v>
+      </c>
+      <c r="P5">
+        <v>1.134093528633144</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2057193879183359</v>
+        <v>1.249156987800177</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04617782536377746</v>
+        <v>0.1542775106263292</v>
       </c>
       <c r="E6">
-        <v>2.246369905392214</v>
+        <v>0.223873251191403</v>
       </c>
       <c r="F6">
-        <v>0.2278322490445177</v>
+        <v>1.186129185244155</v>
       </c>
       <c r="G6">
-        <v>0.17696817964557</v>
+        <v>1.23400854117483</v>
       </c>
       <c r="H6">
-        <v>0.0865052497169998</v>
+        <v>0.005089249966602927</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01906542383687437</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7456116955914638</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4310791739814359</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3364240887343186</v>
       </c>
       <c r="M6">
-        <v>12.56482334805668</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7882628500442195</v>
       </c>
       <c r="O6">
-        <v>0.5108718415216771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4861568622518249</v>
+      </c>
+      <c r="P6">
+        <v>1.135251252861849</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2155379068424566</v>
+        <v>1.307022551103586</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0484476485117824</v>
+        <v>0.1601172649415119</v>
       </c>
       <c r="E7">
-        <v>2.373965461415338</v>
+        <v>0.2326700191546998</v>
       </c>
       <c r="F7">
-        <v>0.2411447559093887</v>
+        <v>1.218379909497258</v>
       </c>
       <c r="G7">
-        <v>0.1896262786623808</v>
+        <v>1.280195731035349</v>
       </c>
       <c r="H7">
-        <v>0.08923327470890996</v>
+        <v>0.004344615790825179</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01817037494830664</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7655330287276172</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.427673103995426</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.349864421851052</v>
       </c>
       <c r="M7">
-        <v>13.23785319093042</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.8271890371344455</v>
       </c>
       <c r="O7">
-        <v>0.5435993859948525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5094084229833413</v>
+      </c>
+      <c r="P7">
+        <v>1.132819834948137</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2594585974076722</v>
+        <v>1.565593585634844</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05847998665733201</v>
+        <v>0.185957605704786</v>
       </c>
       <c r="E8">
-        <v>2.963982414797641</v>
+        <v>0.2713006768316504</v>
       </c>
       <c r="F8">
-        <v>0.3050460245521194</v>
+        <v>1.36639962043715</v>
       </c>
       <c r="G8">
-        <v>0.2509993005113742</v>
+        <v>1.490221321613262</v>
       </c>
       <c r="H8">
-        <v>0.1040778263177273</v>
+        <v>0.001819668138623443</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01439581675648594</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.8568566153492441</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4144745020546807</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4086808293207582</v>
       </c>
       <c r="M8">
-        <v>16.28745331037405</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9973485676473217</v>
       </c>
       <c r="O8">
-        <v>0.7055706365323999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6121543350861813</v>
+      </c>
+      <c r="P8">
+        <v>1.122136423849078</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3485826620497647</v>
+        <v>2.076914800326676</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07836918907084822</v>
+        <v>0.2376768593480278</v>
       </c>
       <c r="E9">
-        <v>4.279995771775418</v>
+        <v>0.3478902052378743</v>
       </c>
       <c r="F9">
-        <v>0.4564112366461401</v>
+        <v>1.675056786801065</v>
       </c>
       <c r="G9">
-        <v>0.399915643918817</v>
+        <v>1.923335594488492</v>
       </c>
       <c r="H9">
-        <v>0.1469547262368991</v>
+        <v>3.09683789057047E-07</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008425264252774234</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.047522799850498</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3931620634118254</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5247932754743658</v>
       </c>
       <c r="M9">
-        <v>22.75018419951903</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.331662384259118</v>
       </c>
       <c r="O9">
-        <v>1.112534509225924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8145549242987897</v>
+      </c>
+      <c r="P9">
+        <v>1.104286919350812</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4169955362012416</v>
+        <v>2.434424178334552</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09335947060684902</v>
+        <v>0.2786423725792275</v>
       </c>
       <c r="E10">
-        <v>5.437320556000856</v>
+        <v>0.4107351496951495</v>
       </c>
       <c r="F10">
-        <v>0.5936719222034768</v>
+        <v>1.890434329049882</v>
       </c>
       <c r="G10">
-        <v>0.5387013506796734</v>
+        <v>2.232744703778991</v>
       </c>
       <c r="H10">
-        <v>0.191845768454499</v>
+        <v>0.00107256306321224</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005572739843663577</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.183725242586775</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3745084959109768</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6216942931063727</v>
       </c>
       <c r="M10">
-        <v>28.07856256781389</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.56383953424421</v>
       </c>
       <c r="O10">
-        <v>1.501848817065962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.955459679569465</v>
+      </c>
+      <c r="P10">
+        <v>1.104532077977254</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.449116411643061</v>
+        <v>2.470234779319355</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1003580316197912</v>
+        <v>0.311712138060102</v>
       </c>
       <c r="E11">
-        <v>6.041507998502453</v>
+        <v>0.4830538510191573</v>
       </c>
       <c r="F11">
-        <v>0.6653311442634333</v>
+        <v>1.80772242151879</v>
       </c>
       <c r="G11">
-        <v>0.6124598063151865</v>
+        <v>2.190987890553203</v>
       </c>
       <c r="H11">
-        <v>0.2169329430169427</v>
+        <v>0.01990537926759117</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.005534694268047424</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.155076904623456</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3333176730049416</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7489432951281003</v>
       </c>
       <c r="M11">
-        <v>30.73585419748798</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.501230007723194</v>
       </c>
       <c r="O11">
-        <v>1.711254983973845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.943430350687926</v>
+      </c>
+      <c r="P11">
+        <v>1.18856229776587</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4614686576582159</v>
+        <v>2.431099067836215</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1030481185572398</v>
+        <v>0.3313961494005753</v>
       </c>
       <c r="E12">
-        <v>6.286722512872927</v>
+        <v>0.5337303980475809</v>
       </c>
       <c r="F12">
-        <v>0.6942675645443899</v>
+        <v>1.696711581445342</v>
       </c>
       <c r="G12">
-        <v>0.6424904836238596</v>
+        <v>2.093374094116541</v>
       </c>
       <c r="H12">
-        <v>0.2273394864002967</v>
+        <v>0.05854332124943085</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.005505236961855786</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.103411934229769</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3077883071355796</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.8425949701964441</v>
       </c>
       <c r="M12">
-        <v>31.790719958598</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.395710836501706</v>
       </c>
       <c r="O12">
-        <v>1.796905998049311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.903245282147644</v>
+      </c>
+      <c r="P12">
+        <v>1.266598257321078</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4587990525328962</v>
+        <v>2.32484388699703</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1024666709726603</v>
+        <v>0.3418607965840579</v>
       </c>
       <c r="E13">
-        <v>6.233063958918649</v>
+        <v>0.570812299306894</v>
       </c>
       <c r="F13">
-        <v>0.6879453378097438</v>
+        <v>1.55315611204324</v>
       </c>
       <c r="G13">
-        <v>0.6359171315235983</v>
+        <v>1.942513568817986</v>
       </c>
       <c r="H13">
-        <v>0.2250528787993744</v>
+        <v>0.1139945661981017</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.005898591575670409</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.028687908787276</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2906802607706886</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9161433245858177</v>
       </c>
       <c r="M13">
-        <v>31.56104385965034</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.256860848186989</v>
       </c>
       <c r="O13">
-        <v>1.778140232543109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8393692623130846</v>
+      </c>
+      <c r="P13">
+        <v>1.345848822492997</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4501285273453703</v>
+        <v>2.219237323246546</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1005784372341481</v>
+        <v>0.3450896658895601</v>
       </c>
       <c r="E14">
-        <v>6.061312003502195</v>
+        <v>0.5910110308460261</v>
       </c>
       <c r="F14">
-        <v>0.6676721095349762</v>
+        <v>1.4384048006592</v>
       </c>
       <c r="G14">
-        <v>0.6148840478912092</v>
+        <v>1.813209939004565</v>
       </c>
       <c r="H14">
-        <v>0.217769155745458</v>
+        <v>0.1630568731214055</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006480310534464628</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.96609297411581</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2828069516418559</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9594131281551057</v>
       </c>
       <c r="M14">
-        <v>30.8215490156324</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.146777008858805</v>
       </c>
       <c r="O14">
-        <v>1.718161345995725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7843980682373441</v>
+      </c>
+      <c r="P14">
+        <v>1.403203365024751</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4448438255857781</v>
+        <v>2.177785451030786</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09942758829551224</v>
+        <v>0.3438710666675746</v>
       </c>
       <c r="E15">
-        <v>5.958453295149326</v>
+        <v>0.592735754818122</v>
       </c>
       <c r="F15">
-        <v>0.6555066870788337</v>
+        <v>1.402808328671767</v>
       </c>
       <c r="G15">
-        <v>0.6022959553133234</v>
+        <v>1.769803807610032</v>
       </c>
       <c r="H15">
-        <v>0.2134346794336608</v>
+        <v>0.1754406573246001</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.006861022027315755</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.945666234477784</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2820288636336121</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9649714808579972</v>
       </c>
       <c r="M15">
-        <v>30.37549976723886</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.114005815960553</v>
       </c>
       <c r="O15">
-        <v>1.68231497910341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7661172698542913</v>
+      </c>
+      <c r="P15">
+        <v>1.417084925993152</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4149199237147911</v>
+        <v>2.045590197485296</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09290674592395476</v>
+        <v>0.3233908692398586</v>
       </c>
       <c r="E16">
-        <v>5.399786854716041</v>
+        <v>0.5566103500143811</v>
       </c>
       <c r="F16">
-        <v>0.5892101256046232</v>
+        <v>1.339127324130317</v>
       </c>
       <c r="G16">
-        <v>0.5341378611455667</v>
+        <v>1.666647995327565</v>
       </c>
       <c r="H16">
-        <v>0.1903178961047018</v>
+        <v>0.1621697229601011</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.008149312612228066</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9017133450755921</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2925418222605147</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9056052885619295</v>
       </c>
       <c r="M16">
-        <v>27.91071863295576</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.047760576573637</v>
       </c>
       <c r="O16">
-        <v>1.488942148941589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7201931861965178</v>
+      </c>
+      <c r="P16">
+        <v>1.397053921499207</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3968454200051212</v>
+        <v>1.99980680807505</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08896024847054917</v>
+        <v>0.3060984637827175</v>
       </c>
       <c r="E17">
-        <v>5.079915152739233</v>
+        <v>0.518271595167505</v>
       </c>
       <c r="F17">
-        <v>0.5511762309356243</v>
+        <v>1.350948945534356</v>
       </c>
       <c r="G17">
-        <v>0.4953769885981529</v>
+        <v>1.65617535551803</v>
       </c>
       <c r="H17">
-        <v>0.1774681691795053</v>
+        <v>0.1241928742878571</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008862774850505239</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9012843661296017</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3045044087561806</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.8371194815264431</v>
       </c>
       <c r="M17">
-        <v>26.46699005031394</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.054825685075912</v>
       </c>
       <c r="O17">
-        <v>1.379576527555116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7139057665717132</v>
+      </c>
+      <c r="P17">
+        <v>1.351486656369246</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.386540077137326</v>
+        <v>2.026653219945104</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08670607643083628</v>
+        <v>0.2895845613755199</v>
       </c>
       <c r="E18">
-        <v>4.902825967950065</v>
+        <v>0.474534113398299</v>
       </c>
       <c r="F18">
-        <v>0.5301306451208703</v>
+        <v>1.431458960638636</v>
       </c>
       <c r="G18">
-        <v>0.4740377742785427</v>
+        <v>1.725891741170443</v>
       </c>
       <c r="H18">
-        <v>0.1704980572651777</v>
+        <v>0.07133721343822685</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008750297271886254</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9389841689673801</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3213662982814238</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.7552103995891457</v>
       </c>
       <c r="M18">
-        <v>25.65736316602755</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.124690046056173</v>
       </c>
       <c r="O18">
-        <v>1.319578855792287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7411318262177033</v>
+      </c>
+      <c r="P18">
+        <v>1.280691961910264</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3830653305716112</v>
+        <v>2.101292053346754</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08594524001485837</v>
+        <v>0.2756631371249654</v>
       </c>
       <c r="E19">
-        <v>4.843931512256518</v>
+        <v>0.4331288920763612</v>
       </c>
       <c r="F19">
-        <v>0.5231363807602776</v>
+        <v>1.558941805861608</v>
       </c>
       <c r="G19">
-        <v>0.466963252153576</v>
+        <v>1.85175029370771</v>
       </c>
       <c r="H19">
-        <v>0.1682047945585623</v>
+        <v>0.02617824207998609</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008554631047718253</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.002777653566397</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3422139784890046</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.675980609782485</v>
       </c>
       <c r="M19">
-        <v>25.38645774026571</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.248514643967667</v>
       </c>
       <c r="O19">
-        <v>1.299723672333045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7939892322120912</v>
+      </c>
+      <c r="P19">
+        <v>1.206445338858728</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.398759830958042</v>
+        <v>2.324938033849719</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08937865095391828</v>
+        <v>0.2684055259156821</v>
       </c>
       <c r="E20">
-        <v>5.113223134279593</v>
+        <v>0.3960087143778068</v>
       </c>
       <c r="F20">
-        <v>0.5551362761843919</v>
+        <v>1.823627069482157</v>
       </c>
       <c r="G20">
-        <v>0.4994009833482664</v>
+        <v>2.141034599687259</v>
       </c>
       <c r="H20">
-        <v>0.1787911289084576</v>
+        <v>0.0006009292101318842</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007128976370607276</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.142683501881521</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3753002792134374</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5996820059510952</v>
       </c>
       <c r="M20">
-        <v>26.61844212344175</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.511636336168266</v>
       </c>
       <c r="O20">
-        <v>1.390907932508696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9179409142736077</v>
+      </c>
+      <c r="P20">
+        <v>1.110915280111058</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4526696913607964</v>
+        <v>2.622735760183275</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1011318215209442</v>
+        <v>0.2980095810463155</v>
       </c>
       <c r="E21">
-        <v>6.111257206137196</v>
+        <v>0.4376717030808024</v>
       </c>
       <c r="F21">
-        <v>0.6735730183637898</v>
+        <v>2.026944942404555</v>
       </c>
       <c r="G21">
-        <v>0.6209989771042501</v>
+        <v>2.418030924908521</v>
       </c>
       <c r="H21">
-        <v>0.2198814927553201</v>
+        <v>0.002108227840349031</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005091504870954999</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.266971516558584</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3684715847760955</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6612812213502082</v>
       </c>
       <c r="M21">
-        <v>31.0372766667374</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.721063239439331</v>
       </c>
       <c r="O21">
-        <v>1.735588259119595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.040079866958528</v>
+      </c>
+      <c r="P21">
+        <v>1.098781165156808</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.489041158068332</v>
+        <v>2.816642661652452</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1090595909720946</v>
+        <v>0.3183244137241132</v>
       </c>
       <c r="E22">
-        <v>6.864379058698489</v>
+        <v>0.4670416848456043</v>
       </c>
       <c r="F22">
-        <v>0.7619026866181784</v>
+        <v>2.155709477056661</v>
       </c>
       <c r="G22">
-        <v>0.713232648167093</v>
+        <v>2.595708555107194</v>
       </c>
       <c r="H22">
-        <v>0.2522341521396072</v>
+        <v>0.003697896019339786</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003741328085240525</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.346604126272211</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3639567991890615</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7053136923360483</v>
       </c>
       <c r="M22">
-        <v>34.22282646261721</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.844890786968335</v>
       </c>
       <c r="O22">
-        <v>1.99944524227439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.115835081370292</v>
+      </c>
+      <c r="P22">
+        <v>1.093125256872156</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4695041223583019</v>
+        <v>2.718962770505698</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1047986701533148</v>
+        <v>0.3072169210587958</v>
       </c>
       <c r="E23">
-        <v>6.450541531129488</v>
+        <v>0.4506473372184203</v>
       </c>
       <c r="F23">
-        <v>0.7135314831524227</v>
+        <v>2.089964833790646</v>
       </c>
       <c r="G23">
-        <v>0.6625610441268037</v>
+        <v>2.503759980324475</v>
       </c>
       <c r="H23">
-        <v>0.2343503382486034</v>
+        <v>0.002800743284195661</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004098108070359707</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.305547018806749</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3677828036128439</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.68048134653489</v>
       </c>
       <c r="M23">
-        <v>32.48794529143839</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.774861753155108</v>
       </c>
       <c r="O23">
-        <v>1.854263167132444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.075405921821037</v>
+      </c>
+      <c r="P23">
+        <v>1.093585051766041</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3978940612128383</v>
+        <v>2.339577515413112</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08918944626856273</v>
+        <v>0.2664020620615872</v>
       </c>
       <c r="E24">
-        <v>5.098143734772435</v>
+        <v>0.3907457446628868</v>
       </c>
       <c r="F24">
-        <v>0.553343415897082</v>
+        <v>1.8417024198109</v>
       </c>
       <c r="G24">
-        <v>0.4975788307478552</v>
+        <v>2.158060712105538</v>
       </c>
       <c r="H24">
-        <v>0.1781917347560977</v>
+        <v>0.0005115585323587357</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006553882329503935</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.151381333994067</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3807403757627164</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5900160991226358</v>
       </c>
       <c r="M24">
-        <v>26.54990813207104</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.518434028238886</v>
       </c>
       <c r="O24">
-        <v>1.385776155215638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9229315999848495</v>
+      </c>
+      <c r="P24">
+        <v>1.100956628000816</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3240533166277828</v>
+        <v>1.930251850769707</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07294553468054943</v>
+        <v>0.2238193392937831</v>
       </c>
       <c r="E25">
-        <v>3.899295818236453</v>
+        <v>0.3279101179888855</v>
       </c>
       <c r="F25">
-        <v>0.4117978345029911</v>
+        <v>1.584890505792188</v>
       </c>
       <c r="G25">
-        <v>0.3555477621665375</v>
+        <v>1.799119858741221</v>
       </c>
       <c r="H25">
-        <v>0.1334522786798971</v>
+        <v>0.0001202902940138362</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0103300794681811</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.9923145307403445</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3963901122985583</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4948968991786273</v>
       </c>
       <c r="M25">
-        <v>20.92636563372582</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.246173833402395</v>
       </c>
       <c r="O25">
-        <v>0.9898032980693756</v>
+        <v>0.7596151353061913</v>
+      </c>
+      <c r="P25">
+        <v>1.111938275513523</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.642116223893908</v>
+        <v>1.575176251601135</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1927770856393067</v>
+        <v>0.1850502271878867</v>
       </c>
       <c r="E2">
-        <v>0.281097105523088</v>
+        <v>0.2741676242140159</v>
       </c>
       <c r="F2">
-        <v>1.411206881848273</v>
+        <v>1.37958447874982</v>
       </c>
       <c r="G2">
-        <v>1.551958559459194</v>
+        <v>1.498166873498121</v>
       </c>
       <c r="H2">
-        <v>0.001329389710208351</v>
+        <v>0.0009222578070202658</v>
       </c>
       <c r="I2">
-        <v>0.01310769074328944</v>
+        <v>0.009195883368251501</v>
       </c>
       <c r="J2">
-        <v>0.8841010570274648</v>
+        <v>0.9291345271392686</v>
       </c>
       <c r="K2">
-        <v>0.4128526508121375</v>
+        <v>0.364593197526565</v>
       </c>
       <c r="L2">
-        <v>0.4233070202477336</v>
+        <v>0.1590438976684183</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1167384366284576</v>
       </c>
       <c r="N2">
-        <v>1.039372964288447</v>
+        <v>0.4160878839420263</v>
       </c>
       <c r="O2">
-        <v>0.6400677428074033</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.117039773500018</v>
+        <v>1.080298458645018</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.64120381772603</v>
+      </c>
+      <c r="R2">
+        <v>1.100859785503815</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.438240077795939</v>
+        <v>1.383706611633727</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1723921778242357</v>
+        <v>0.1652946955576198</v>
       </c>
       <c r="E3">
-        <v>0.2507132112519912</v>
+        <v>0.2432957384876744</v>
       </c>
       <c r="F3">
-        <v>1.29275916725652</v>
+        <v>1.26729030425038</v>
       </c>
       <c r="G3">
-        <v>1.384512669329155</v>
+        <v>1.33766074203578</v>
       </c>
       <c r="H3">
-        <v>0.002963015637203248</v>
+        <v>0.00222240663103801</v>
       </c>
       <c r="I3">
-        <v>0.01590418439412078</v>
+        <v>0.01117651814448362</v>
       </c>
       <c r="J3">
-        <v>0.8110129272020004</v>
+        <v>0.855295116149648</v>
       </c>
       <c r="K3">
-        <v>0.4226530809320739</v>
+        <v>0.3748019840182746</v>
       </c>
       <c r="L3">
-        <v>0.3771092084073047</v>
+        <v>0.1649044302590639</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1201876109453703</v>
       </c>
       <c r="N3">
-        <v>0.9058126744381241</v>
+        <v>0.3681506382286273</v>
       </c>
       <c r="O3">
-        <v>0.5592491902549099</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.125213518347671</v>
+        <v>0.9388178886465255</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5604158282794245</v>
+      </c>
+      <c r="R3">
+        <v>1.098774139749345</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.31248120244382</v>
+        <v>1.265203679834258</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1600048942806609</v>
+        <v>0.1532798581764894</v>
       </c>
       <c r="E4">
-        <v>0.2322302025057397</v>
+        <v>0.2245267104637705</v>
       </c>
       <c r="F4">
-        <v>1.221521986696501</v>
+        <v>1.199478413698941</v>
       </c>
       <c r="G4">
-        <v>1.28347153622488</v>
+        <v>1.240885135653713</v>
       </c>
       <c r="H4">
-        <v>0.004329132304398908</v>
+        <v>0.003335385155822213</v>
       </c>
       <c r="I4">
-        <v>0.01784743139144052</v>
+        <v>0.01257212730136548</v>
       </c>
       <c r="J4">
-        <v>0.7671501780322671</v>
+        <v>0.8103075404724791</v>
       </c>
       <c r="K4">
-        <v>0.4289429976366996</v>
+        <v>0.3812543830787725</v>
       </c>
       <c r="L4">
-        <v>0.3489956791398043</v>
+        <v>0.1686682982339853</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1227884088459881</v>
       </c>
       <c r="N4">
-        <v>0.8244840783410154</v>
+        <v>0.3390148240075348</v>
       </c>
       <c r="O4">
-        <v>0.5096993027050516</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.131018600823843</v>
+        <v>0.8527817199358481</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5108404256759727</v>
+      </c>
+      <c r="R4">
+        <v>1.098437915203831</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.259668025723897</v>
+        <v>1.215349452687406</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1550358240183201</v>
+        <v>0.1484591757216052</v>
       </c>
       <c r="E5">
-        <v>0.2248930977162793</v>
+        <v>0.2170738593923609</v>
       </c>
       <c r="F5">
-        <v>1.192013039127787</v>
+        <v>1.171330921302413</v>
       </c>
       <c r="G5">
-        <v>1.241883646928756</v>
+        <v>1.201087785578011</v>
       </c>
       <c r="H5">
-        <v>0.004974175587944274</v>
+        <v>0.003865413985409849</v>
       </c>
       <c r="I5">
-        <v>0.01878623750641717</v>
+        <v>0.0132865885654736</v>
       </c>
       <c r="J5">
-        <v>0.7490981238547079</v>
+        <v>0.7916557727639884</v>
       </c>
       <c r="K5">
-        <v>0.4311807788529585</v>
+        <v>0.3835857764214232</v>
       </c>
       <c r="L5">
-        <v>0.3378931367363407</v>
+        <v>0.1700568624261791</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1238981664376215</v>
       </c>
       <c r="N5">
-        <v>0.7924298531786178</v>
+        <v>0.3275017981049189</v>
       </c>
       <c r="O5">
-        <v>0.4895144754262333</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.134093528633144</v>
+        <v>0.8188146874037443</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.490635721986159</v>
+      </c>
+      <c r="R5">
+        <v>1.099066358804102</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.249156987800177</v>
+        <v>1.205434906447465</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1542775106263292</v>
+        <v>0.1477239904139438</v>
       </c>
       <c r="E6">
-        <v>0.223873251191403</v>
+        <v>0.21603045423727</v>
       </c>
       <c r="F6">
-        <v>1.186129185244155</v>
+        <v>1.165728326055373</v>
       </c>
       <c r="G6">
-        <v>1.23400854117483</v>
+        <v>1.193573789833351</v>
       </c>
       <c r="H6">
-        <v>0.005089249966602927</v>
+        <v>0.003960192269763185</v>
       </c>
       <c r="I6">
-        <v>0.01906542383687437</v>
+        <v>0.01354166190512274</v>
       </c>
       <c r="J6">
-        <v>0.7456116955914638</v>
+        <v>0.7880790756245233</v>
       </c>
       <c r="K6">
-        <v>0.4310791739814359</v>
+        <v>0.3835584503005371</v>
       </c>
       <c r="L6">
-        <v>0.3364240887343186</v>
+        <v>0.1700630466272699</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1240033053652656</v>
       </c>
       <c r="N6">
-        <v>0.7882628500442195</v>
+        <v>0.3259571781705262</v>
       </c>
       <c r="O6">
-        <v>0.4861568622518249</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.135251252861849</v>
+        <v>0.8142902693170413</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4872747784888816</v>
+      </c>
+      <c r="R6">
+        <v>1.099840767926779</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.307022551103586</v>
+        <v>1.259320689188854</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1601172649415119</v>
+        <v>0.1528499035052491</v>
       </c>
       <c r="E7">
-        <v>0.2326700191546998</v>
+        <v>0.2244280594751302</v>
       </c>
       <c r="F7">
-        <v>1.218379909497258</v>
+        <v>1.193818520103719</v>
       </c>
       <c r="G7">
-        <v>1.280195731035349</v>
+        <v>1.242358992666198</v>
       </c>
       <c r="H7">
-        <v>0.004344615790825179</v>
+        <v>0.003356188864379162</v>
       </c>
       <c r="I7">
-        <v>0.01817037494830664</v>
+        <v>0.01293641222612063</v>
       </c>
       <c r="J7">
-        <v>0.7655330287276172</v>
+        <v>0.7979853281942439</v>
       </c>
       <c r="K7">
-        <v>0.427673103995426</v>
+        <v>0.3799259812492171</v>
       </c>
       <c r="L7">
-        <v>0.349864421851052</v>
+        <v>0.1679621382730918</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1225056027706994</v>
       </c>
       <c r="N7">
-        <v>0.8271890371344455</v>
+        <v>0.3392697291609039</v>
       </c>
       <c r="O7">
-        <v>0.5094084229833413</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.132819834948137</v>
+        <v>0.8537965982686444</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5099352362565313</v>
+      </c>
+      <c r="R7">
+        <v>1.100764176908015</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.565593585634844</v>
+        <v>1.500856179319385</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.185957605704786</v>
+        <v>0.1766297587759027</v>
       </c>
       <c r="E8">
-        <v>0.2713006768316504</v>
+        <v>0.262418879677881</v>
       </c>
       <c r="F8">
-        <v>1.36639962043715</v>
+        <v>1.328184993099725</v>
       </c>
       <c r="G8">
-        <v>1.490221321613262</v>
+        <v>1.454322762640544</v>
       </c>
       <c r="H8">
-        <v>0.001819668138623443</v>
+        <v>0.001322964201251553</v>
       </c>
       <c r="I8">
-        <v>0.01439581675648594</v>
+        <v>0.01028305557424503</v>
       </c>
       <c r="J8">
-        <v>0.8568566153492441</v>
+        <v>0.8661740110457288</v>
       </c>
       <c r="K8">
-        <v>0.4144745020546807</v>
+        <v>0.3658927929094276</v>
       </c>
       <c r="L8">
-        <v>0.4086808293207582</v>
+        <v>0.1599739411635568</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.117241386105233</v>
       </c>
       <c r="N8">
-        <v>0.9973485676473217</v>
+        <v>0.3988505028998617</v>
       </c>
       <c r="O8">
-        <v>0.6121543350861813</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.122136423849078</v>
+        <v>1.030147854825543</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6112467734622555</v>
+      </c>
+      <c r="R8">
+        <v>1.104245573940155</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.076914800326676</v>
+        <v>1.977956448182056</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2376768593480278</v>
+        <v>0.226089030867783</v>
       </c>
       <c r="E9">
-        <v>0.3478902052378743</v>
+        <v>0.3397156419727878</v>
       </c>
       <c r="F9">
-        <v>1.675056786801065</v>
+        <v>1.616470114938323</v>
       </c>
       <c r="G9">
-        <v>1.923335594488492</v>
+        <v>1.874409149579066</v>
       </c>
       <c r="H9">
-        <v>3.09683789057047E-07</v>
+        <v>1.500040220214771E-05</v>
       </c>
       <c r="I9">
-        <v>0.008425264252774234</v>
+        <v>0.006021736538462719</v>
       </c>
       <c r="J9">
-        <v>1.047522799850498</v>
+        <v>1.044116379087455</v>
       </c>
       <c r="K9">
-        <v>0.3931620634118254</v>
+        <v>0.3426918173542219</v>
       </c>
       <c r="L9">
-        <v>0.5247932754743658</v>
+        <v>0.1469906809006645</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1115241834964706</v>
       </c>
       <c r="N9">
-        <v>1.331662384259118</v>
+        <v>0.5189071316305274</v>
       </c>
       <c r="O9">
-        <v>0.8145549242987897</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.104286919350812</v>
+        <v>1.383594911592525</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8126522000985403</v>
+      </c>
+      <c r="R9">
+        <v>1.113465004840407</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.434424178334552</v>
+        <v>2.306412926457085</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2786423725792275</v>
+        <v>0.2618298869815732</v>
       </c>
       <c r="E10">
-        <v>0.4107351496951495</v>
+        <v>0.3996371546909501</v>
       </c>
       <c r="F10">
-        <v>1.890434329049882</v>
+        <v>1.800363859202051</v>
       </c>
       <c r="G10">
-        <v>2.232744703778991</v>
+        <v>2.20352130924195</v>
       </c>
       <c r="H10">
-        <v>0.00107256306321224</v>
+        <v>0.00112530852039594</v>
       </c>
       <c r="I10">
-        <v>0.005572739843663577</v>
+        <v>0.004167653094468093</v>
       </c>
       <c r="J10">
-        <v>1.183725242586775</v>
+        <v>1.105251868760917</v>
       </c>
       <c r="K10">
-        <v>0.3745084959109768</v>
+        <v>0.3222291602549241</v>
       </c>
       <c r="L10">
-        <v>0.6216942931063727</v>
+        <v>0.1366807855166741</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1079620797804601</v>
       </c>
       <c r="N10">
-        <v>1.56383953424421</v>
+        <v>0.6149336179540228</v>
       </c>
       <c r="O10">
-        <v>0.955459679569465</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.104532077977254</v>
+        <v>1.618972400837606</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9487911320099229</v>
+      </c>
+      <c r="R10">
+        <v>1.137868634925766</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.470234779319355</v>
+        <v>2.344106921336561</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.311712138060102</v>
+        <v>0.2857492804136967</v>
       </c>
       <c r="E11">
-        <v>0.4830538510191573</v>
+        <v>0.4627711869169886</v>
       </c>
       <c r="F11">
-        <v>1.80772242151879</v>
+        <v>1.692351692400536</v>
       </c>
       <c r="G11">
-        <v>2.190987890553203</v>
+        <v>2.2306932429413</v>
       </c>
       <c r="H11">
-        <v>0.01990537926759117</v>
+        <v>0.0198759169986289</v>
       </c>
       <c r="I11">
-        <v>0.005534694268047424</v>
+        <v>0.004475152571431273</v>
       </c>
       <c r="J11">
-        <v>1.155076904623456</v>
+        <v>0.9524520664165834</v>
       </c>
       <c r="K11">
-        <v>0.3333176730049416</v>
+        <v>0.2882791578170245</v>
       </c>
       <c r="L11">
-        <v>0.7489432951281003</v>
+        <v>0.1240685943014324</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09612511479218</v>
       </c>
       <c r="N11">
-        <v>1.501230007723194</v>
+        <v>0.7321958735694807</v>
       </c>
       <c r="O11">
-        <v>0.943430350687926</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.18856229776587</v>
+        <v>1.525917224628529</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9287145604054103</v>
+      </c>
+      <c r="R11">
+        <v>1.238586514976433</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.431099067836215</v>
+        <v>2.315351179462482</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3313961494005753</v>
+        <v>0.3004769592450174</v>
       </c>
       <c r="E12">
-        <v>0.5337303980475809</v>
+        <v>0.5074716315601435</v>
       </c>
       <c r="F12">
-        <v>1.696711581445342</v>
+        <v>1.577247816666386</v>
       </c>
       <c r="G12">
-        <v>2.093374094116541</v>
+        <v>2.168331849348618</v>
       </c>
       <c r="H12">
-        <v>0.05854332124943085</v>
+        <v>0.05848719676320258</v>
       </c>
       <c r="I12">
-        <v>0.005505236961855786</v>
+        <v>0.004476096513248429</v>
       </c>
       <c r="J12">
-        <v>1.103411934229769</v>
+        <v>0.8542704256530271</v>
       </c>
       <c r="K12">
-        <v>0.3077883071355796</v>
+        <v>0.2691319123930054</v>
       </c>
       <c r="L12">
-        <v>0.8425949701964441</v>
+        <v>0.1177770387109067</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08844542722519577</v>
       </c>
       <c r="N12">
-        <v>1.395710836501706</v>
+        <v>0.8184452189674829</v>
       </c>
       <c r="O12">
-        <v>0.903245282147644</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.266598257321078</v>
+        <v>1.401345091319683</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8852784319670164</v>
+      </c>
+      <c r="R12">
+        <v>1.321881714909736</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.32484388699703</v>
+        <v>2.229041083708069</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3418607965840579</v>
+        <v>0.3109132937142647</v>
       </c>
       <c r="E13">
-        <v>0.570812299306894</v>
+        <v>0.5430188792192396</v>
       </c>
       <c r="F13">
-        <v>1.55315611204324</v>
+        <v>1.451195443989974</v>
       </c>
       <c r="G13">
-        <v>1.942513568817986</v>
+        <v>2.01771893845293</v>
       </c>
       <c r="H13">
-        <v>0.1139945661981017</v>
+        <v>0.1139683434847711</v>
       </c>
       <c r="I13">
-        <v>0.005898591575670409</v>
+        <v>0.004725566954024707</v>
       </c>
       <c r="J13">
-        <v>1.028687908787276</v>
+        <v>0.8066721562080374</v>
       </c>
       <c r="K13">
-        <v>0.2906802607706886</v>
+        <v>0.2581484984022362</v>
       </c>
       <c r="L13">
-        <v>0.9161433245858177</v>
+        <v>0.1145503497028262</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08321251071296842</v>
       </c>
       <c r="N13">
-        <v>1.256860848186989</v>
+        <v>0.8888701482328685</v>
       </c>
       <c r="O13">
-        <v>0.8393692623130846</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.345848822492997</v>
+        <v>1.25402435879289</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8230094442504239</v>
+      </c>
+      <c r="R13">
+        <v>1.394801423818123</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.219237323246546</v>
+        <v>2.141419420394186</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3450896658895601</v>
+        <v>0.3164689424439473</v>
       </c>
       <c r="E14">
-        <v>0.5910110308460261</v>
+        <v>0.5643413997370814</v>
       </c>
       <c r="F14">
-        <v>1.4384048006592</v>
+        <v>1.357114713635312</v>
       </c>
       <c r="G14">
-        <v>1.813209939004565</v>
+        <v>1.874367258945711</v>
       </c>
       <c r="H14">
-        <v>0.1630568731214055</v>
+        <v>0.1630656059395648</v>
       </c>
       <c r="I14">
-        <v>0.006480310534464628</v>
+        <v>0.005134803040349745</v>
       </c>
       <c r="J14">
-        <v>0.96609297411581</v>
+        <v>0.7926527471543352</v>
       </c>
       <c r="K14">
-        <v>0.2828069516418559</v>
+        <v>0.2539991028312674</v>
       </c>
       <c r="L14">
-        <v>0.9594131281551057</v>
+        <v>0.1134148678936686</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08081235154103794</v>
       </c>
       <c r="N14">
-        <v>1.146777008858805</v>
+        <v>0.9320809614441998</v>
       </c>
       <c r="O14">
-        <v>0.7843980682373441</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.403203365024751</v>
+        <v>1.142146977122707</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7710998288047932</v>
+      </c>
+      <c r="R14">
+        <v>1.441797688546359</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.177785451030786</v>
+        <v>2.106201312557971</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3438710666675746</v>
+        <v>0.3168482658996936</v>
       </c>
       <c r="E15">
-        <v>0.592735754818122</v>
+        <v>0.5673441296016293</v>
       </c>
       <c r="F15">
-        <v>1.402808328671767</v>
+        <v>1.330227829734923</v>
       </c>
       <c r="G15">
-        <v>1.769803807610032</v>
+        <v>1.821726000768621</v>
       </c>
       <c r="H15">
-        <v>0.1754406573246001</v>
+        <v>0.1754629406216566</v>
       </c>
       <c r="I15">
-        <v>0.006861022027315755</v>
+        <v>0.005451700702013618</v>
       </c>
       <c r="J15">
-        <v>0.945666234477784</v>
+        <v>0.7968125161092985</v>
       </c>
       <c r="K15">
-        <v>0.2820288636336121</v>
+        <v>0.2540506445324198</v>
       </c>
       <c r="L15">
-        <v>0.9649714808579972</v>
+        <v>0.1134375909943079</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08060443771767289</v>
       </c>
       <c r="N15">
-        <v>1.114005815960553</v>
+        <v>0.9386574773974417</v>
       </c>
       <c r="O15">
-        <v>0.7661172698542913</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.417084925993152</v>
+        <v>1.110486599971182</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7543804022200078</v>
+      </c>
+      <c r="R15">
+        <v>1.450867039960812</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.045590197485296</v>
+        <v>1.988989931871743</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3233908692398586</v>
+        <v>0.3048838617378919</v>
       </c>
       <c r="E16">
-        <v>0.5566103500143811</v>
+        <v>0.539558414180533</v>
       </c>
       <c r="F16">
-        <v>1.339127324130317</v>
+        <v>1.297371969272717</v>
       </c>
       <c r="G16">
-        <v>1.666647995327565</v>
+        <v>1.670610903176964</v>
       </c>
       <c r="H16">
-        <v>0.1621697229601011</v>
+        <v>0.1622130567784268</v>
       </c>
       <c r="I16">
-        <v>0.008149312612228066</v>
+        <v>0.006346748215483977</v>
       </c>
       <c r="J16">
-        <v>0.9017133450755921</v>
+        <v>0.861191814044787</v>
       </c>
       <c r="K16">
-        <v>0.2925418222605147</v>
+        <v>0.2641380970236433</v>
       </c>
       <c r="L16">
-        <v>0.9056052885619295</v>
+        <v>0.1164148763168833</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08415951509225206</v>
       </c>
       <c r="N16">
-        <v>1.047760576573637</v>
+        <v>0.888055663622012</v>
       </c>
       <c r="O16">
-        <v>0.7201931861965178</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.397053921499207</v>
+        <v>1.057127570762816</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7152828591244784</v>
+      </c>
+      <c r="R16">
+        <v>1.412919297070957</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.99980680807505</v>
+        <v>1.944107091937497</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3060984637827175</v>
+        <v>0.2915661700693448</v>
       </c>
       <c r="E17">
-        <v>0.518271595167505</v>
+        <v>0.5055047671312494</v>
       </c>
       <c r="F17">
-        <v>1.350948945534356</v>
+        <v>1.319005252089013</v>
       </c>
       <c r="G17">
-        <v>1.65617535551803</v>
+        <v>1.637021861460539</v>
       </c>
       <c r="H17">
-        <v>0.1241928742878571</v>
+        <v>0.1242163472830669</v>
       </c>
       <c r="I17">
-        <v>0.008862774850505239</v>
+        <v>0.006854449678518115</v>
       </c>
       <c r="J17">
-        <v>0.9012843661296017</v>
+        <v>0.90651266437186</v>
       </c>
       <c r="K17">
-        <v>0.3045044087561806</v>
+        <v>0.2741842125290903</v>
       </c>
       <c r="L17">
-        <v>0.8371194815264431</v>
+        <v>0.1197321598463623</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08790724818210371</v>
       </c>
       <c r="N17">
-        <v>1.054825685075912</v>
+        <v>0.8245825586318603</v>
       </c>
       <c r="O17">
-        <v>0.7139057665717132</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.351486656369246</v>
+        <v>1.073293836267993</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7118418824579322</v>
+      </c>
+      <c r="R17">
+        <v>1.361457776337829</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.026653219945104</v>
+        <v>1.961510451867923</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2895845613755199</v>
+        <v>0.2770345548922819</v>
       </c>
       <c r="E18">
-        <v>0.474534113398299</v>
+        <v>0.4645222425004363</v>
       </c>
       <c r="F18">
-        <v>1.431458960638636</v>
+        <v>1.397937498811231</v>
       </c>
       <c r="G18">
-        <v>1.725891741170443</v>
+        <v>1.691291112197945</v>
       </c>
       <c r="H18">
-        <v>0.07133721343822685</v>
+        <v>0.07135164011198469</v>
       </c>
       <c r="I18">
-        <v>0.008750297271886254</v>
+        <v>0.006647408337355998</v>
       </c>
       <c r="J18">
-        <v>0.9389841689673801</v>
+        <v>0.9612794574463805</v>
       </c>
       <c r="K18">
-        <v>0.3213662982814238</v>
+        <v>0.2873150467059116</v>
       </c>
       <c r="L18">
-        <v>0.7552103995891457</v>
+        <v>0.1245368009314562</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0927804041638618</v>
       </c>
       <c r="N18">
-        <v>1.124690046056173</v>
+        <v>0.746579977439481</v>
       </c>
       <c r="O18">
-        <v>0.7411318262177033</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.280691961910264</v>
+        <v>1.153727217876082</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7402212089331925</v>
+      </c>
+      <c r="R18">
+        <v>1.291474207061441</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.101292053346754</v>
+        <v>2.02020221510378</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2756631371249654</v>
+        <v>0.2639534076295291</v>
       </c>
       <c r="E19">
-        <v>0.4331288920763612</v>
+        <v>0.424880134926255</v>
       </c>
       <c r="F19">
-        <v>1.558941805861608</v>
+        <v>1.516888977684019</v>
       </c>
       <c r="G19">
-        <v>1.85175029370771</v>
+        <v>1.804930550496351</v>
       </c>
       <c r="H19">
-        <v>0.02617824207998609</v>
+        <v>0.02621100222246753</v>
       </c>
       <c r="I19">
-        <v>0.008554631047718253</v>
+        <v>0.006566539332128585</v>
       </c>
       <c r="J19">
-        <v>1.002777653566397</v>
+        <v>1.026330716084857</v>
       </c>
       <c r="K19">
-        <v>0.3422139784890046</v>
+        <v>0.3028017850249967</v>
       </c>
       <c r="L19">
-        <v>0.675980609782485</v>
+        <v>0.1304426278566435</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09851380992686209</v>
       </c>
       <c r="N19">
-        <v>1.248514643967667</v>
+        <v>0.6702937224067398</v>
       </c>
       <c r="O19">
-        <v>0.7939892322120912</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.206445338858728</v>
+        <v>1.290122295996468</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7933122417676586</v>
+      </c>
+      <c r="R19">
+        <v>1.221001662724078</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.324938033849719</v>
+        <v>2.208833458616937</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2684055259156821</v>
+        <v>0.2550035816068288</v>
       </c>
       <c r="E20">
-        <v>0.3960087143778068</v>
+        <v>0.3876575640966919</v>
       </c>
       <c r="F20">
-        <v>1.823627069482157</v>
+        <v>1.752596615899165</v>
       </c>
       <c r="G20">
-        <v>2.141034599687259</v>
+        <v>2.090281247170026</v>
       </c>
       <c r="H20">
-        <v>0.0006009292101318842</v>
+        <v>0.0006806335539426556</v>
       </c>
       <c r="I20">
-        <v>0.007128976370607276</v>
+        <v>0.005613501657030895</v>
       </c>
       <c r="J20">
-        <v>1.142683501881521</v>
+        <v>1.12289607066927</v>
       </c>
       <c r="K20">
-        <v>0.3753002792134374</v>
+        <v>0.3250278753670752</v>
       </c>
       <c r="L20">
-        <v>0.5996820059510952</v>
+        <v>0.1384003252642287</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1077862320517173</v>
       </c>
       <c r="N20">
-        <v>1.511636336168266</v>
+        <v>0.5953636884456586</v>
       </c>
       <c r="O20">
-        <v>0.9179409142736077</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.110915280111058</v>
+        <v>1.571342048896213</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9148577422567357</v>
+      </c>
+      <c r="R20">
+        <v>1.1361636786785</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.622735760183275</v>
+        <v>2.46412763670844</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2980095810463155</v>
+        <v>0.2700120334083067</v>
       </c>
       <c r="E21">
-        <v>0.4376717030808024</v>
+        <v>0.416743744500323</v>
       </c>
       <c r="F21">
-        <v>2.026944942404555</v>
+        <v>1.87544935707048</v>
       </c>
       <c r="G21">
-        <v>2.418030924908521</v>
+        <v>2.471839292743596</v>
       </c>
       <c r="H21">
-        <v>0.002108227840349031</v>
+        <v>0.001991775202631385</v>
       </c>
       <c r="I21">
-        <v>0.005091504870954999</v>
+        <v>0.004304721835610259</v>
       </c>
       <c r="J21">
-        <v>1.266971516558584</v>
+        <v>0.9920631759531489</v>
       </c>
       <c r="K21">
-        <v>0.3684715847760955</v>
+        <v>0.3111116967016194</v>
       </c>
       <c r="L21">
-        <v>0.6612812213502082</v>
+        <v>0.131508312942195</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1061451813195209</v>
       </c>
       <c r="N21">
-        <v>1.721063239439331</v>
+        <v>0.6447407124482396</v>
       </c>
       <c r="O21">
-        <v>1.040079866958528</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.098781165156808</v>
+        <v>1.755097608914724</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.020854656170343</v>
+      </c>
+      <c r="R21">
+        <v>1.154657294442273</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.816642661652452</v>
+        <v>2.629012940850771</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3183244137241132</v>
+        <v>0.2799548882973397</v>
       </c>
       <c r="E22">
-        <v>0.4670416848456043</v>
+        <v>0.4369327440542534</v>
       </c>
       <c r="F22">
-        <v>2.155709477056661</v>
+        <v>1.946603834035201</v>
       </c>
       <c r="G22">
-        <v>2.595708555107194</v>
+        <v>2.729658902835979</v>
       </c>
       <c r="H22">
-        <v>0.003697896019339786</v>
+        <v>0.00331094102383489</v>
       </c>
       <c r="I22">
-        <v>0.003741328085240525</v>
+        <v>0.003270282177080475</v>
       </c>
       <c r="J22">
-        <v>1.346604126272211</v>
+        <v>0.8982583877324828</v>
       </c>
       <c r="K22">
-        <v>0.3639567991890615</v>
+        <v>0.3017853784214886</v>
       </c>
       <c r="L22">
-        <v>0.7053136923360483</v>
+        <v>0.1270934899956053</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1052469237112845</v>
       </c>
       <c r="N22">
-        <v>1.844890786968335</v>
+        <v>0.6796430513208378</v>
       </c>
       <c r="O22">
-        <v>1.115835081370292</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.093125256872156</v>
+        <v>1.858259117368618</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.084732030690091</v>
+      </c>
+      <c r="R22">
+        <v>1.170332658986965</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.718962770505698</v>
+        <v>2.548559609106405</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3072169210587958</v>
+        <v>0.275830877338052</v>
       </c>
       <c r="E23">
-        <v>0.4506473372184203</v>
+        <v>0.4269150793619403</v>
       </c>
       <c r="F23">
-        <v>2.089964833790646</v>
+        <v>1.918766317153384</v>
       </c>
       <c r="G23">
-        <v>2.503759980324475</v>
+        <v>2.581256373119572</v>
       </c>
       <c r="H23">
-        <v>0.002800743284195661</v>
+        <v>0.002585188860075083</v>
       </c>
       <c r="I23">
-        <v>0.004098108070359707</v>
+        <v>0.0034004648460364</v>
       </c>
       <c r="J23">
-        <v>1.305547018806749</v>
+        <v>0.9739416994165708</v>
       </c>
       <c r="K23">
-        <v>0.3677828036128439</v>
+        <v>0.3083597955085757</v>
       </c>
       <c r="L23">
-        <v>0.68048134653489</v>
+        <v>0.1299397391350663</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1064014927019841</v>
       </c>
       <c r="N23">
-        <v>1.774861753155108</v>
+        <v>0.6613632604403534</v>
       </c>
       <c r="O23">
-        <v>1.075405921821037</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.093585051766041</v>
+        <v>1.803850719271395</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.052393244991173</v>
+      </c>
+      <c r="R23">
+        <v>1.157403448379867</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.339577515413112</v>
+        <v>2.221274951041039</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2664020620615872</v>
+        <v>0.2531807446524539</v>
       </c>
       <c r="E24">
-        <v>0.3907457446628868</v>
+        <v>0.3826093686968832</v>
       </c>
       <c r="F24">
-        <v>1.8417024198109</v>
+        <v>1.769715612796915</v>
       </c>
       <c r="G24">
-        <v>2.158060712105538</v>
+        <v>2.104970384222497</v>
       </c>
       <c r="H24">
-        <v>0.0005115585323587357</v>
+        <v>0.0005933209110247084</v>
       </c>
       <c r="I24">
-        <v>0.006553882329503935</v>
+        <v>0.00495073945750768</v>
       </c>
       <c r="J24">
-        <v>1.151381333994067</v>
+        <v>1.133027808410134</v>
       </c>
       <c r="K24">
-        <v>0.3807403757627164</v>
+        <v>0.3292501221703077</v>
       </c>
       <c r="L24">
-        <v>0.5900160991226358</v>
+        <v>0.139975722481811</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1093732608045173</v>
       </c>
       <c r="N24">
-        <v>1.518434028238886</v>
+        <v>0.5859454748578798</v>
       </c>
       <c r="O24">
-        <v>0.9229315999848495</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.100956628000816</v>
+        <v>1.579974080416406</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9199556732824874</v>
+      </c>
+      <c r="R24">
+        <v>1.125652488753502</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.930251850769707</v>
+        <v>1.842660570764451</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2238193392937831</v>
+        <v>0.2136557394469918</v>
       </c>
       <c r="E25">
-        <v>0.3279101179888855</v>
+        <v>0.3203039390867843</v>
       </c>
       <c r="F25">
-        <v>1.584890505792188</v>
+        <v>1.536435803374488</v>
       </c>
       <c r="G25">
-        <v>1.799119858741221</v>
+        <v>1.747407618218944</v>
       </c>
       <c r="H25">
-        <v>0.0001202902940138362</v>
+        <v>4.568675838001468E-05</v>
       </c>
       <c r="I25">
-        <v>0.0103300794681811</v>
+        <v>0.007576620638790388</v>
       </c>
       <c r="J25">
-        <v>0.9923145307403445</v>
+        <v>1.008546765283768</v>
       </c>
       <c r="K25">
-        <v>0.3963901122985583</v>
+        <v>0.3472156255345951</v>
       </c>
       <c r="L25">
-        <v>0.4948968991786273</v>
+        <v>0.1497186935739752</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1121062711282033</v>
       </c>
       <c r="N25">
-        <v>1.246173833402395</v>
+        <v>0.4887663229177264</v>
       </c>
       <c r="O25">
-        <v>0.7596151353061913</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.111938275513523</v>
+        <v>1.294909021309934</v>
       </c>
       <c r="Q25">
+        <v>0.7589382256736528</v>
+      </c>
+      <c r="R25">
+        <v>1.113100602972565</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
